--- a/history/общий 23.03_01.xlsx
+++ b/history/общий 23.03_01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pavel.rostov\PycharmProjects\scrapyBotTrade\history\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24482FA9-A3E4-4CBC-8E9B-9CD0447184EA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F21C5BBB-C24E-4EE5-A157-D7D1643B9940}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2152,12 +2152,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -2168,6 +2162,12 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2514,11 +2514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:CR178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="CY8" sqref="CY8"/>
+      <selection activeCell="CX7" sqref="CX7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
@@ -2563,18 +2562,18 @@
       </c>
     </row>
     <row r="2" spans="1:96" x14ac:dyDescent="0.25">
-      <c r="B2" s="6">
+      <c r="B2" s="16">
         <v>44278</v>
       </c>
-      <c r="C2" s="7"/>
+      <c r="C2" s="17"/>
       <c r="E2">
         <f>SUBTOTAL(  2,A:A)</f>
-        <v>2</v>
+        <v>149</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>655</v>
       </c>
-      <c r="H2" s="8"/>
+      <c r="H2" s="6"/>
       <c r="I2" s="5">
         <f t="shared" ref="I2:I6" si="0">H2/$E$2</f>
         <v>0</v>
@@ -2584,14 +2583,14 @@
       </c>
       <c r="L2" s="3">
         <f>SUBTOTAL( 9,CL:CL)</f>
-        <v>152.59</v>
+        <v>8173.4900000000025</v>
       </c>
     </row>
     <row r="3" spans="1:96" x14ac:dyDescent="0.25">
       <c r="G3" s="3" t="s">
         <v>657</v>
       </c>
-      <c r="H3" s="9"/>
+      <c r="H3" s="7"/>
       <c r="I3" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2599,16 +2598,16 @@
       <c r="K3" s="3" t="s">
         <v>658</v>
       </c>
-      <c r="L3" s="10">
+      <c r="L3" s="8">
         <f>SUBTOTAL( 9,CR:CR)</f>
-        <v>154.7772242763549</v>
+        <v>8250.0773398370166</v>
       </c>
     </row>
     <row r="4" spans="1:96" x14ac:dyDescent="0.25">
       <c r="G4" s="3" t="s">
         <v>659</v>
       </c>
-      <c r="H4" s="11"/>
+      <c r="H4" s="9"/>
       <c r="I4" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2616,26 +2615,26 @@
       <c r="K4" s="3" t="s">
         <v>660</v>
       </c>
-      <c r="L4" s="12">
+      <c r="L4" s="10">
         <f>100%-(L2/L3)</f>
-        <v>1.4131434948397859E-2</v>
+        <v>9.2832268937890206E-3</v>
       </c>
     </row>
     <row r="5" spans="1:96" x14ac:dyDescent="0.25">
       <c r="G5" s="3" t="s">
         <v>661</v>
       </c>
-      <c r="H5" s="13"/>
+      <c r="H5" s="11"/>
       <c r="I5" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:96" x14ac:dyDescent="0.25">
-      <c r="G6" s="14">
-        <v>0</v>
-      </c>
-      <c r="H6" s="15"/>
+      <c r="G6" s="12">
+        <v>0</v>
+      </c>
+      <c r="H6" s="13"/>
       <c r="I6" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2925,7 +2924,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="9" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0</v>
       </c>
@@ -3202,20 +3201,20 @@
       <c r="CN9" t="s">
         <v>97</v>
       </c>
-      <c r="CO9" s="17">
+      <c r="CO9" s="15">
         <f t="shared" ref="CO9" si="1">100%-(M9/CL9)</f>
         <v>-1.9835000877654885E-2</v>
       </c>
-      <c r="CP9" s="17">
+      <c r="CP9" s="15">
         <f t="shared" ref="CP9" si="2">100%-(CL9/CM9)</f>
         <v>1.3506493506493578E-2</v>
       </c>
-      <c r="CR9" s="16">
+      <c r="CR9" s="14">
         <f t="shared" ref="CR9:CR72" si="3">CL9*CP9+CL9</f>
         <v>57.739464935064937</v>
       </c>
     </row>
-    <row r="10" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -3492,20 +3491,20 @@
       <c r="CN10" t="s">
         <v>103</v>
       </c>
-      <c r="CO10" s="17">
+      <c r="CO10" s="15">
         <f t="shared" ref="CO10:CO73" si="4">100%-(M10/CL10)</f>
         <v>4.5502806006372243E-3</v>
       </c>
-      <c r="CP10" s="17">
+      <c r="CP10" s="15">
         <f t="shared" ref="CP10:CP73" si="5">100%-(CL10/CM10)</f>
         <v>0</v>
       </c>
-      <c r="CR10" s="16">
+      <c r="CR10" s="14">
         <f t="shared" si="3"/>
         <v>65.930000000000007</v>
       </c>
     </row>
-    <row r="11" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
@@ -3782,20 +3781,20 @@
       <c r="CN11" t="s">
         <v>103</v>
       </c>
-      <c r="CO11" s="17">
+      <c r="CO11" s="15">
         <f t="shared" si="4"/>
         <v>-3.3184005309427889E-4</v>
       </c>
-      <c r="CP11" s="17">
+      <c r="CP11" s="15">
         <f t="shared" si="5"/>
         <v>1.2129159154236957E-2</v>
       </c>
-      <c r="CR11" s="16">
+      <c r="CR11" s="14">
         <f t="shared" si="3"/>
         <v>61.001024422225868</v>
       </c>
     </row>
-    <row r="12" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>3</v>
       </c>
@@ -4072,20 +4071,20 @@
       <c r="CN12" t="s">
         <v>97</v>
       </c>
-      <c r="CO12" s="17">
+      <c r="CO12" s="15">
         <f t="shared" si="4"/>
         <v>3.4057735971455561E-3</v>
       </c>
-      <c r="CP12" s="17">
+      <c r="CP12" s="15">
         <f t="shared" si="5"/>
         <v>5.4838709677419439E-3</v>
       </c>
-      <c r="CR12" s="16">
+      <c r="CR12" s="14">
         <f t="shared" si="3"/>
         <v>61.998135483870968</v>
       </c>
     </row>
-    <row r="13" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>4</v>
       </c>
@@ -4362,20 +4361,20 @@
       <c r="CN13" t="s">
         <v>97</v>
       </c>
-      <c r="CO13" s="17">
+      <c r="CO13" s="15">
         <f t="shared" si="4"/>
         <v>-1.4666340747984119E-3</v>
       </c>
-      <c r="CP13" s="17">
+      <c r="CP13" s="15">
         <f t="shared" si="5"/>
         <v>3.6531904529957249E-3</v>
       </c>
-      <c r="CR13" s="16">
+      <c r="CR13" s="14">
         <f t="shared" si="3"/>
         <v>41.059452021432051</v>
       </c>
     </row>
-    <row r="14" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>5</v>
       </c>
@@ -4652,20 +4651,20 @@
       <c r="CN14" t="s">
         <v>103</v>
       </c>
-      <c r="CO14" s="17">
+      <c r="CO14" s="15">
         <f t="shared" si="4"/>
         <v>2.5278058645106238E-4</v>
       </c>
-      <c r="CP14" s="17">
+      <c r="CP14" s="15">
         <f t="shared" si="5"/>
         <v>2.0181634712411745E-3</v>
       </c>
-      <c r="CR14" s="16">
+      <c r="CR14" s="14">
         <f t="shared" si="3"/>
         <v>39.639838546922306</v>
       </c>
     </row>
-    <row r="15" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>6</v>
       </c>
@@ -4942,20 +4941,20 @@
       <c r="CN15" t="s">
         <v>103</v>
       </c>
-      <c r="CO15" s="17">
+      <c r="CO15" s="15">
         <f t="shared" si="4"/>
         <v>-1.1859838274932644E-2</v>
       </c>
-      <c r="CP15" s="17">
+      <c r="CP15" s="15">
         <f t="shared" si="5"/>
         <v>5.0951997854652431E-3</v>
       </c>
-      <c r="CR15" s="16">
+      <c r="CR15" s="14">
         <f t="shared" si="3"/>
         <v>37.289031912040763</v>
       </c>
     </row>
-    <row r="16" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>7</v>
       </c>
@@ -5232,20 +5231,20 @@
       <c r="CN16" t="s">
         <v>103</v>
       </c>
-      <c r="CO16" s="17">
+      <c r="CO16" s="15">
         <f t="shared" si="4"/>
         <v>-2.9078665442301421E-3</v>
       </c>
-      <c r="CP16" s="17">
+      <c r="CP16" s="15">
         <f t="shared" si="5"/>
         <v>1.6806722689075571E-3</v>
       </c>
-      <c r="CR16" s="16">
+      <c r="CR16" s="14">
         <f t="shared" si="3"/>
         <v>65.449815126050424</v>
       </c>
     </row>
-    <row r="17" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>8</v>
       </c>
@@ -5522,20 +5521,20 @@
       <c r="CN17" t="s">
         <v>103</v>
       </c>
-      <c r="CO17" s="17">
+      <c r="CO17" s="15">
         <f t="shared" si="4"/>
         <v>-5.0664977834071756E-3</v>
       </c>
-      <c r="CP17" s="17">
+      <c r="CP17" s="15">
         <f t="shared" si="5"/>
         <v>8.7884494664155488E-3</v>
       </c>
-      <c r="CR17" s="16">
+      <c r="CR17" s="14">
         <f t="shared" si="3"/>
         <v>31.857539234149403</v>
       </c>
     </row>
-    <row r="18" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>9</v>
       </c>
@@ -5812,20 +5811,20 @@
       <c r="CN18" t="s">
         <v>103</v>
       </c>
-      <c r="CO18" s="17">
+      <c r="CO18" s="15">
         <f t="shared" si="4"/>
         <v>1.0353038616839338E-4</v>
       </c>
-      <c r="CP18" s="17">
+      <c r="CP18" s="15">
         <f t="shared" si="5"/>
         <v>4.8423655470842819E-3</v>
       </c>
-      <c r="CR18" s="16">
+      <c r="CR18" s="14">
         <f t="shared" si="3"/>
         <v>97.05772408819287</v>
       </c>
     </row>
-    <row r="19" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>10</v>
       </c>
@@ -6102,20 +6101,20 @@
       <c r="CN19" t="s">
         <v>103</v>
       </c>
-      <c r="CO19" s="17">
+      <c r="CO19" s="15">
         <f t="shared" si="4"/>
         <v>-2.0966558339448049E-3</v>
       </c>
-      <c r="CP19" s="17">
+      <c r="CP19" s="15">
         <f t="shared" si="5"/>
         <v>6.8714211348255283E-3</v>
       </c>
-      <c r="CR19" s="16">
+      <c r="CR19" s="14">
         <f t="shared" si="3"/>
         <v>96.045464862051006</v>
       </c>
     </row>
-    <row r="20" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>11</v>
       </c>
@@ -6392,20 +6391,20 @@
       <c r="CN20" t="s">
         <v>97</v>
       </c>
-      <c r="CO20" s="17">
+      <c r="CO20" s="15">
         <f t="shared" si="4"/>
         <v>1.5362798392816179E-3</v>
       </c>
-      <c r="CP20" s="17">
+      <c r="CP20" s="15">
         <f t="shared" si="5"/>
         <v>9.5973782771534566E-3</v>
       </c>
-      <c r="CR20" s="16">
+      <c r="CR20" s="14">
         <f t="shared" si="3"/>
         <v>85.432130149812735</v>
       </c>
     </row>
-    <row r="21" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>12</v>
       </c>
@@ -6682,20 +6681,20 @@
       <c r="CN21" t="s">
         <v>97</v>
       </c>
-      <c r="CO21" s="17">
+      <c r="CO21" s="15">
         <f t="shared" si="4"/>
         <v>-1.5073483230749751E-3</v>
       </c>
-      <c r="CP21" s="17">
+      <c r="CP21" s="15">
         <f t="shared" si="5"/>
         <v>1.460576804059921E-2</v>
       </c>
-      <c r="CR21" s="16">
+      <c r="CR21" s="14">
         <f t="shared" si="3"/>
         <v>80.772765193712104</v>
       </c>
     </row>
-    <row r="22" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>13</v>
       </c>
@@ -6972,20 +6971,20 @@
       <c r="CN22" t="s">
         <v>97</v>
       </c>
-      <c r="CO22" s="17">
+      <c r="CO22" s="15">
         <f t="shared" si="4"/>
         <v>2.3332923983790943E-3</v>
       </c>
-      <c r="CP22" s="17">
+      <c r="CP22" s="15">
         <f t="shared" si="5"/>
         <v>1.3687015503875966E-2</v>
       </c>
-      <c r="CR22" s="16">
+      <c r="CR22" s="14">
         <f t="shared" si="3"/>
         <v>82.544533672480625</v>
       </c>
     </row>
-    <row r="23" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>14</v>
       </c>
@@ -7262,20 +7261,20 @@
       <c r="CN23" t="s">
         <v>97</v>
       </c>
-      <c r="CO23" s="17">
+      <c r="CO23" s="15">
         <f t="shared" si="4"/>
         <v>-2.3765240752222638E-3</v>
       </c>
-      <c r="CP23" s="17">
+      <c r="CP23" s="15">
         <f t="shared" si="5"/>
         <v>1.1944869831546745E-2</v>
       </c>
-      <c r="CR23" s="16">
+      <c r="CR23" s="14">
         <f t="shared" si="3"/>
         <v>97.936024502297101</v>
       </c>
     </row>
-    <row r="24" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>15</v>
       </c>
@@ -7552,20 +7551,20 @@
       <c r="CN24" t="s">
         <v>97</v>
       </c>
-      <c r="CO24" s="17">
+      <c r="CO24" s="15">
         <f t="shared" si="4"/>
         <v>-1.4652014652014822E-2</v>
       </c>
-      <c r="CP24" s="17">
+      <c r="CP24" s="15">
         <f t="shared" si="5"/>
         <v>6.885799662206038E-3</v>
       </c>
-      <c r="CR24" s="16">
+      <c r="CR24" s="14">
         <f t="shared" si="3"/>
         <v>76.966350526179028</v>
       </c>
     </row>
-    <row r="25" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>16</v>
       </c>
@@ -7842,20 +7841,20 @@
       <c r="CN25" t="s">
         <v>97</v>
       </c>
-      <c r="CO25" s="17">
+      <c r="CO25" s="15">
         <f t="shared" si="4"/>
         <v>-2.2286605749943789E-3</v>
       </c>
-      <c r="CP25" s="17">
+      <c r="CP25" s="15">
         <f t="shared" si="5"/>
         <v>5.9813912272929093E-3</v>
       </c>
-      <c r="CR25" s="16">
+      <c r="CR25" s="14">
         <f t="shared" si="3"/>
         <v>45.138385024368631</v>
       </c>
     </row>
-    <row r="26" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>17</v>
       </c>
@@ -8132,20 +8131,20 @@
       <c r="CN26" t="s">
         <v>97</v>
       </c>
-      <c r="CO26" s="17">
+      <c r="CO26" s="15">
         <f t="shared" si="4"/>
         <v>-1.9782393669633969E-2</v>
       </c>
-      <c r="CP26" s="17">
+      <c r="CP26" s="15">
         <f t="shared" si="5"/>
         <v>2.3026315789473895E-3</v>
       </c>
-      <c r="CR26" s="16">
+      <c r="CR26" s="14">
         <f t="shared" si="3"/>
         <v>30.399838815789472</v>
       </c>
     </row>
-    <row r="27" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>18</v>
       </c>
@@ -8422,20 +8421,20 @@
       <c r="CN27" t="s">
         <v>97</v>
       </c>
-      <c r="CO27" s="17">
+      <c r="CO27" s="15">
         <f t="shared" si="4"/>
         <v>-5.0262481849658869E-3</v>
       </c>
-      <c r="CP27" s="17">
+      <c r="CP27" s="15">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="CR27" s="16">
+      <c r="CR27" s="14">
         <f t="shared" si="3"/>
         <v>89.53</v>
       </c>
     </row>
-    <row r="28" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>19</v>
       </c>
@@ -8712,20 +8711,20 @@
       <c r="CN28" t="s">
         <v>97</v>
       </c>
-      <c r="CO28" s="17">
+      <c r="CO28" s="15">
         <f t="shared" si="4"/>
         <v>-6.1162079510703737E-3</v>
       </c>
-      <c r="CP28" s="17">
+      <c r="CP28" s="15">
         <f t="shared" si="5"/>
         <v>2.9149797570850122E-2</v>
       </c>
-      <c r="CR28" s="16">
+      <c r="CR28" s="14">
         <f t="shared" si="3"/>
         <v>37.018518218623477</v>
       </c>
     </row>
-    <row r="29" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>20</v>
       </c>
@@ -9002,20 +9001,20 @@
       <c r="CN29" t="s">
         <v>97</v>
       </c>
-      <c r="CO29" s="17">
+      <c r="CO29" s="15">
         <f t="shared" si="4"/>
         <v>-6.0216780409483306E-4</v>
       </c>
-      <c r="CP29" s="17">
+      <c r="CP29" s="15">
         <f t="shared" si="5"/>
         <v>1.6032064128256307E-3</v>
       </c>
-      <c r="CR29" s="16">
+      <c r="CR29" s="14">
         <f t="shared" si="3"/>
         <v>49.899871743486976</v>
       </c>
     </row>
-    <row r="30" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>21</v>
       </c>
@@ -9292,20 +9291,20 @@
       <c r="CN30" t="s">
         <v>97</v>
       </c>
-      <c r="CO30" s="17">
+      <c r="CO30" s="15">
         <f t="shared" si="4"/>
         <v>-1.0431154381084884E-2</v>
       </c>
-      <c r="CP30" s="17">
+      <c r="CP30" s="15">
         <f t="shared" si="5"/>
         <v>1.8509949097639256E-3</v>
       </c>
-      <c r="CR30" s="16">
+      <c r="CR30" s="14">
         <f t="shared" si="3"/>
         <v>43.219851920407216</v>
       </c>
     </row>
-    <row r="31" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>22</v>
       </c>
@@ -9582,20 +9581,20 @@
       <c r="CN31" t="s">
         <v>97</v>
       </c>
-      <c r="CO31" s="17">
+      <c r="CO31" s="15">
         <f t="shared" si="4"/>
         <v>-1.2225294716926349E-2</v>
       </c>
-      <c r="CP31" s="17">
+      <c r="CP31" s="15">
         <f t="shared" si="5"/>
         <v>1.3212695677150665E-2</v>
       </c>
-      <c r="CR31" s="16">
+      <c r="CR31" s="14">
         <f t="shared" si="3"/>
         <v>69.61784431997701</v>
       </c>
     </row>
-    <row r="32" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>23</v>
       </c>
@@ -9872,20 +9871,20 @@
       <c r="CN32" t="s">
         <v>97</v>
       </c>
-      <c r="CO32" s="17">
+      <c r="CO32" s="15">
         <f t="shared" si="4"/>
         <v>-1.3930871336575112E-2</v>
       </c>
-      <c r="CP32" s="17">
+      <c r="CP32" s="15">
         <f t="shared" si="5"/>
         <v>6.6579634464750681E-3</v>
       </c>
-      <c r="CR32" s="16">
+      <c r="CR32" s="14">
         <f t="shared" si="3"/>
         <v>76.596604438642288</v>
       </c>
     </row>
-    <row r="33" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>24</v>
       </c>
@@ -10162,20 +10161,20 @@
       <c r="CN33" t="s">
         <v>97</v>
       </c>
-      <c r="CO33" s="17">
+      <c r="CO33" s="15">
         <f t="shared" si="4"/>
         <v>-2.5308446694085607E-3</v>
       </c>
-      <c r="CP33" s="17">
+      <c r="CP33" s="15">
         <f t="shared" si="5"/>
         <v>4.5662100456620447E-3</v>
       </c>
-      <c r="CR33" s="16">
+      <c r="CR33" s="14">
         <f t="shared" si="3"/>
         <v>63.508675799086753</v>
       </c>
     </row>
-    <row r="34" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>25</v>
       </c>
@@ -10452,20 +10451,20 @@
       <c r="CN34" t="s">
         <v>97</v>
       </c>
-      <c r="CO34" s="17">
+      <c r="CO34" s="15">
         <f t="shared" si="4"/>
         <v>-1.07302533532041E-2</v>
       </c>
-      <c r="CP34" s="17">
+      <c r="CP34" s="15">
         <f t="shared" si="5"/>
         <v>1.3235294117647123E-2</v>
       </c>
-      <c r="CR34" s="16">
+      <c r="CR34" s="14">
         <f t="shared" si="3"/>
         <v>33.994044117647057</v>
       </c>
     </row>
-    <row r="35" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>26</v>
       </c>
@@ -10742,20 +10741,20 @@
       <c r="CN35" t="s">
         <v>97</v>
       </c>
-      <c r="CO35" s="17">
+      <c r="CO35" s="15">
         <f t="shared" si="4"/>
         <v>1.9836022216345173E-3</v>
       </c>
-      <c r="CP35" s="17">
+      <c r="CP35" s="15">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="CR35" s="16">
+      <c r="CR35" s="14">
         <f t="shared" si="3"/>
         <v>75.62</v>
       </c>
     </row>
-    <row r="36" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>27</v>
       </c>
@@ -11032,20 +11031,20 @@
       <c r="CN36" t="s">
         <v>97</v>
       </c>
-      <c r="CO36" s="17">
+      <c r="CO36" s="15">
         <f t="shared" si="4"/>
         <v>-3.7983425414365168E-3</v>
       </c>
-      <c r="CP36" s="17">
+      <c r="CP36" s="15">
         <f t="shared" si="5"/>
         <v>4.4688896528015665E-3</v>
       </c>
-      <c r="CR36" s="16">
+      <c r="CR36" s="14">
         <f t="shared" si="3"/>
         <v>29.089419044345135</v>
       </c>
     </row>
-    <row r="37" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>28</v>
       </c>
@@ -11322,20 +11321,20 @@
       <c r="CN37" t="s">
         <v>97</v>
       </c>
-      <c r="CO37" s="17">
+      <c r="CO37" s="15">
         <f t="shared" si="4"/>
         <v>1.8257694314032236E-3</v>
       </c>
-      <c r="CP37" s="17">
+      <c r="CP37" s="15">
         <f t="shared" si="5"/>
         <v>3.3792565635558658E-3</v>
       </c>
-      <c r="CR37" s="16">
+      <c r="CR37" s="14">
         <f t="shared" si="3"/>
         <v>38.469560696646738</v>
       </c>
     </row>
-    <row r="38" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>29</v>
       </c>
@@ -11612,20 +11611,20 @@
       <c r="CN38" t="s">
         <v>97</v>
       </c>
-      <c r="CO38" s="17">
+      <c r="CO38" s="15">
         <f t="shared" si="4"/>
         <v>1.1848341232227444E-2</v>
       </c>
-      <c r="CP38" s="17">
+      <c r="CP38" s="15">
         <f t="shared" si="5"/>
         <v>9.4696969696961286E-4</v>
       </c>
-      <c r="CR38" s="16">
+      <c r="CR38" s="14">
         <f t="shared" si="3"/>
         <v>105.5999053030303</v>
       </c>
     </row>
-    <row r="39" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>30</v>
       </c>
@@ -11902,20 +11901,20 @@
       <c r="CN39" t="s">
         <v>97</v>
       </c>
-      <c r="CO39" s="17">
+      <c r="CO39" s="15">
         <f t="shared" si="4"/>
         <v>1.2212497455730276E-3</v>
       </c>
-      <c r="CP39" s="17">
+      <c r="CP39" s="15">
         <f t="shared" si="5"/>
         <v>9.8750503829100333E-3</v>
       </c>
-      <c r="CR39" s="16">
+      <c r="CR39" s="14">
         <f t="shared" si="3"/>
         <v>49.61516122531237</v>
       </c>
     </row>
-    <row r="40" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>31</v>
       </c>
@@ -12192,20 +12191,20 @@
       <c r="CN40" t="s">
         <v>97</v>
       </c>
-      <c r="CO40" s="17">
+      <c r="CO40" s="15">
         <f t="shared" si="4"/>
         <v>3.8461538461542766E-4</v>
       </c>
-      <c r="CP40" s="17">
+      <c r="CP40" s="15">
         <f t="shared" si="5"/>
         <v>2.7310138421249519E-2</v>
       </c>
-      <c r="CR40" s="16">
+      <c r="CR40" s="14">
         <f t="shared" si="3"/>
         <v>80.130190796857462</v>
       </c>
     </row>
-    <row r="41" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>32</v>
       </c>
@@ -12482,20 +12481,20 @@
       <c r="CN41" t="s">
         <v>97</v>
       </c>
-      <c r="CO41" s="17">
+      <c r="CO41" s="15">
         <f t="shared" si="4"/>
         <v>-8.8987764182426599E-3</v>
       </c>
-      <c r="CP41" s="17">
+      <c r="CP41" s="15">
         <f t="shared" si="5"/>
         <v>4.7970479704797508E-3</v>
       </c>
-      <c r="CR41" s="16">
+      <c r="CR41" s="14">
         <f t="shared" si="3"/>
         <v>54.198752767527672</v>
       </c>
     </row>
-    <row r="42" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>33</v>
       </c>
@@ -12772,20 +12771,20 @@
       <c r="CN42" t="s">
         <v>97</v>
       </c>
-      <c r="CO42" s="17">
+      <c r="CO42" s="15">
         <f t="shared" si="4"/>
         <v>-1.0997204100652525E-2</v>
       </c>
-      <c r="CP42" s="17">
+      <c r="CP42" s="15">
         <f t="shared" si="5"/>
         <v>1.5957446808510745E-2</v>
       </c>
-      <c r="CR42" s="16">
+      <c r="CR42" s="14">
         <f t="shared" si="3"/>
         <v>54.506117021276602</v>
       </c>
     </row>
-    <row r="43" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>34</v>
       </c>
@@ -13062,20 +13061,20 @@
       <c r="CN43" t="s">
         <v>97</v>
       </c>
-      <c r="CO43" s="17">
+      <c r="CO43" s="15">
         <f t="shared" si="4"/>
         <v>4.8061518743991449E-4</v>
       </c>
-      <c r="CP43" s="17">
+      <c r="CP43" s="15">
         <f t="shared" si="5"/>
         <v>8.4193804606831346E-3</v>
       </c>
-      <c r="CR43" s="16">
+      <c r="CR43" s="14">
         <f t="shared" si="3"/>
         <v>62.945537728355845</v>
       </c>
     </row>
-    <row r="44" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>35</v>
       </c>
@@ -13352,20 +13351,20 @@
       <c r="CN44" t="s">
         <v>103</v>
       </c>
-      <c r="CO44" s="17">
+      <c r="CO44" s="15">
         <f t="shared" si="4"/>
         <v>-7.3975720789074551E-3</v>
       </c>
-      <c r="CP44" s="17">
+      <c r="CP44" s="15">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="CR44" s="16">
+      <c r="CR44" s="14">
         <f t="shared" si="3"/>
         <v>52.72</v>
       </c>
     </row>
-    <row r="45" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>36</v>
       </c>
@@ -13642,20 +13641,20 @@
       <c r="CN45" t="s">
         <v>103</v>
       </c>
-      <c r="CO45" s="17">
+      <c r="CO45" s="15">
         <f t="shared" si="4"/>
         <v>3.7453183520600453E-3</v>
       </c>
-      <c r="CP45" s="17">
+      <c r="CP45" s="15">
         <f t="shared" si="5"/>
         <v>6.0137457044673326E-3</v>
       </c>
-      <c r="CR45" s="16">
+      <c r="CR45" s="14">
         <f t="shared" si="3"/>
         <v>34.918737113402059</v>
       </c>
     </row>
-    <row r="46" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>37</v>
       </c>
@@ -13932,20 +13931,20 @@
       <c r="CN46" t="s">
         <v>97</v>
       </c>
-      <c r="CO46" s="17">
+      <c r="CO46" s="15">
         <f t="shared" si="4"/>
         <v>-6.4239828693790635E-3</v>
       </c>
-      <c r="CP46" s="17">
+      <c r="CP46" s="15">
         <f t="shared" si="5"/>
         <v>1.0593220338983134E-2</v>
       </c>
-      <c r="CR46" s="16">
+      <c r="CR46" s="14">
         <f t="shared" si="3"/>
         <v>51.914173728813559</v>
       </c>
     </row>
-    <row r="47" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>38</v>
       </c>
@@ -14222,20 +14221,20 @@
       <c r="CN47" t="s">
         <v>97</v>
       </c>
-      <c r="CO47" s="17">
+      <c r="CO47" s="15">
         <f t="shared" si="4"/>
         <v>-3.1792614331132008E-3</v>
       </c>
-      <c r="CP47" s="17">
+      <c r="CP47" s="15">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="CR47" s="16">
+      <c r="CR47" s="14">
         <f t="shared" si="3"/>
         <v>40.89</v>
       </c>
     </row>
-    <row r="48" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>39</v>
       </c>
@@ -14512,20 +14511,20 @@
       <c r="CN48" t="s">
         <v>97</v>
       </c>
-      <c r="CO48" s="17">
+      <c r="CO48" s="15">
         <f t="shared" si="4"/>
         <v>3.1595576619269927E-4</v>
       </c>
-      <c r="CP48" s="17">
+      <c r="CP48" s="15">
         <f t="shared" si="5"/>
         <v>6.5913370998117449E-3</v>
       </c>
-      <c r="CR48" s="16">
+      <c r="CR48" s="14">
         <f t="shared" si="3"/>
         <v>31.858615819209039</v>
       </c>
     </row>
-    <row r="49" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>40</v>
       </c>
@@ -14802,20 +14801,20 @@
       <c r="CN49" t="s">
         <v>97</v>
       </c>
-      <c r="CO49" s="17">
+      <c r="CO49" s="15">
         <f t="shared" si="4"/>
         <v>8.2321465322099385E-4</v>
       </c>
-      <c r="CP49" s="17">
+      <c r="CP49" s="15">
         <f t="shared" si="5"/>
         <v>5.1187551187551472E-3</v>
       </c>
-      <c r="CR49" s="16">
+      <c r="CR49" s="14">
         <f t="shared" si="3"/>
         <v>48.838720311220314</v>
       </c>
     </row>
-    <row r="50" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>41</v>
       </c>
@@ -15092,20 +15091,20 @@
       <c r="CN50" t="s">
         <v>97</v>
       </c>
-      <c r="CO50" s="17">
+      <c r="CO50" s="15">
         <f t="shared" si="4"/>
         <v>-6.7701281116550049E-3</v>
       </c>
-      <c r="CP50" s="17">
+      <c r="CP50" s="15">
         <f t="shared" si="5"/>
         <v>1.2141166786706403E-2</v>
       </c>
-      <c r="CR50" s="16">
+      <c r="CR50" s="14">
         <f t="shared" si="3"/>
         <v>97.175673423191682</v>
       </c>
     </row>
-    <row r="51" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>42</v>
       </c>
@@ -15382,20 +15381,20 @@
       <c r="CN51" t="s">
         <v>97</v>
       </c>
-      <c r="CO51" s="17">
+      <c r="CO51" s="15">
         <f t="shared" si="4"/>
         <v>-5.441436539246336E-4</v>
       </c>
-      <c r="CP51" s="17">
+      <c r="CP51" s="15">
         <f t="shared" si="5"/>
         <v>8.2298974635726108E-3</v>
       </c>
-      <c r="CR51" s="16">
+      <c r="CR51" s="14">
         <f t="shared" si="3"/>
         <v>74.114979762547222</v>
       </c>
     </row>
-    <row r="52" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>43</v>
       </c>
@@ -15672,20 +15671,20 @@
       <c r="CN52" t="s">
         <v>103</v>
       </c>
-      <c r="CO52" s="17">
+      <c r="CO52" s="15">
         <f t="shared" si="4"/>
         <v>1.1140819964350346E-3</v>
       </c>
-      <c r="CP52" s="17">
+      <c r="CP52" s="15">
         <f t="shared" si="5"/>
         <v>5.0986477499445071E-3</v>
       </c>
-      <c r="CR52" s="16">
+      <c r="CR52" s="14">
         <f t="shared" si="3"/>
         <v>45.108827311017514</v>
       </c>
     </row>
-    <row r="53" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>44</v>
       </c>
@@ -15962,20 +15961,20 @@
       <c r="CN53" t="s">
         <v>103</v>
       </c>
-      <c r="CO53" s="17">
+      <c r="CO53" s="15">
         <f t="shared" si="4"/>
         <v>-4.8793711032799614E-3</v>
       </c>
-      <c r="CP53" s="17">
+      <c r="CP53" s="15">
         <f t="shared" si="5"/>
         <v>1.6528925619834656E-2</v>
       </c>
-      <c r="CR53" s="16">
+      <c r="CR53" s="14">
         <f t="shared" si="3"/>
         <v>37.499752066115704</v>
       </c>
     </row>
-    <row r="54" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>45</v>
       </c>
@@ -16252,15 +16251,15 @@
       <c r="CN54" t="s">
         <v>97</v>
       </c>
-      <c r="CO54" s="17">
+      <c r="CO54" s="15">
         <f t="shared" si="4"/>
         <v>-1.8425115800308811E-2</v>
       </c>
-      <c r="CP54" s="17">
+      <c r="CP54" s="15">
         <f t="shared" si="5"/>
         <v>1.0994604499643623E-2</v>
       </c>
-      <c r="CR54" s="16">
+      <c r="CR54" s="14">
         <f t="shared" si="3"/>
         <v>98.218125827140383</v>
       </c>
@@ -16542,15 +16541,15 @@
       <c r="CN55" t="s">
         <v>103</v>
       </c>
-      <c r="CO55" s="17">
+      <c r="CO55" s="15">
         <f t="shared" si="4"/>
         <v>-2.5812329183116933E-3</v>
       </c>
-      <c r="CP55" s="17">
+      <c r="CP55" s="15">
         <f t="shared" si="5"/>
         <v>1.7161617669004703E-2</v>
       </c>
-      <c r="CR55" s="16">
+      <c r="CR55" s="14">
         <f t="shared" si="3"/>
         <v>66.990264139680647</v>
       </c>
@@ -16832,20 +16831,20 @@
       <c r="CN56" t="s">
         <v>103</v>
       </c>
-      <c r="CO56" s="17">
+      <c r="CO56" s="15">
         <f t="shared" si="4"/>
         <v>-1.960106076328838E-2</v>
       </c>
-      <c r="CP56" s="17">
+      <c r="CP56" s="15">
         <f t="shared" si="5"/>
         <v>1.2186788154897377E-2</v>
       </c>
-      <c r="CR56" s="16">
+      <c r="CR56" s="14">
         <f t="shared" si="3"/>
         <v>87.786960136674253</v>
       </c>
     </row>
-    <row r="57" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>48</v>
       </c>
@@ -17122,20 +17121,20 @@
       <c r="CN57" t="s">
         <v>103</v>
       </c>
-      <c r="CO57" s="17">
+      <c r="CO57" s="15">
         <f t="shared" si="4"/>
         <v>-2.0593973553002298E-2</v>
       </c>
-      <c r="CP57" s="17">
+      <c r="CP57" s="15">
         <f t="shared" si="5"/>
         <v>7.9569892473118076E-3</v>
       </c>
-      <c r="CR57" s="16">
+      <c r="CR57" s="14">
         <f t="shared" si="3"/>
         <v>46.4970559139785</v>
       </c>
     </row>
-    <row r="58" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>49</v>
       </c>
@@ -17412,20 +17411,20 @@
       <c r="CN58" t="s">
         <v>103</v>
       </c>
-      <c r="CO58" s="17">
+      <c r="CO58" s="15">
         <f t="shared" si="4"/>
         <v>-4.7832124672118059E-3</v>
       </c>
-      <c r="CP58" s="17">
+      <c r="CP58" s="15">
         <f t="shared" si="5"/>
         <v>1.2494286149626554E-2</v>
       </c>
-      <c r="CR58" s="16">
+      <c r="CR58" s="14">
         <f t="shared" si="3"/>
         <v>65.619754685357293</v>
       </c>
     </row>
-    <row r="59" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>50</v>
       </c>
@@ -17702,20 +17701,20 @@
       <c r="CN59" t="s">
         <v>103</v>
       </c>
-      <c r="CO59" s="17">
+      <c r="CO59" s="15">
         <f t="shared" si="4"/>
         <v>-9.3941717791410362E-3</v>
       </c>
-      <c r="CP59" s="17">
+      <c r="CP59" s="15">
         <f t="shared" si="5"/>
         <v>8.1764594029284376E-3</v>
       </c>
-      <c r="CR59" s="16">
+      <c r="CR59" s="14">
         <f t="shared" si="3"/>
         <v>52.586484122456746</v>
       </c>
     </row>
-    <row r="60" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>51</v>
       </c>
@@ -17992,20 +17991,20 @@
       <c r="CN60" t="s">
         <v>103</v>
       </c>
-      <c r="CO60" s="17">
+      <c r="CO60" s="15">
         <f t="shared" si="4"/>
         <v>-6.9649641198816781E-3</v>
       </c>
-      <c r="CP60" s="17">
+      <c r="CP60" s="15">
         <f t="shared" si="5"/>
         <v>3.9941139373553813E-3</v>
       </c>
-      <c r="CR60" s="16">
+      <c r="CR60" s="14">
         <f t="shared" si="3"/>
         <v>47.569241118351897</v>
       </c>
     </row>
-    <row r="61" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>52</v>
       </c>
@@ -18282,20 +18281,20 @@
       <c r="CN61" t="s">
         <v>103</v>
       </c>
-      <c r="CO61" s="17">
+      <c r="CO61" s="15">
         <f t="shared" si="4"/>
         <v>-1.8901209677419262E-2</v>
       </c>
-      <c r="CP61" s="17">
+      <c r="CP61" s="15">
         <f t="shared" si="5"/>
         <v>1.4895729890764708E-2</v>
       </c>
-      <c r="CR61" s="16">
+      <c r="CR61" s="14">
         <f t="shared" si="3"/>
         <v>40.271062562065545</v>
       </c>
     </row>
-    <row r="62" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>53</v>
       </c>
@@ -18572,20 +18571,20 @@
       <c r="CN62" t="s">
         <v>103</v>
       </c>
-      <c r="CO62" s="17">
+      <c r="CO62" s="15">
         <f t="shared" si="4"/>
         <v>-4.3841336116909879E-3</v>
       </c>
-      <c r="CP62" s="17">
+      <c r="CP62" s="15">
         <f t="shared" si="5"/>
         <v>1.1147811725846446E-2</v>
       </c>
-      <c r="CR62" s="16">
+      <c r="CR62" s="14">
         <f t="shared" si="3"/>
         <v>48.433980181668041</v>
       </c>
     </row>
-    <row r="63" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>54</v>
       </c>
@@ -18862,20 +18861,20 @@
       <c r="CN63" t="s">
         <v>103</v>
       </c>
-      <c r="CO63" s="17">
+      <c r="CO63" s="15">
         <f t="shared" si="4"/>
         <v>-1.8169429934135728E-2</v>
       </c>
-      <c r="CP63" s="17">
+      <c r="CP63" s="15">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="CR63" s="16">
+      <c r="CR63" s="14">
         <f t="shared" si="3"/>
         <v>88.06</v>
       </c>
     </row>
-    <row r="64" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>55</v>
       </c>
@@ -19152,20 +19151,20 @@
       <c r="CN64" t="s">
         <v>103</v>
       </c>
-      <c r="CO64" s="17">
+      <c r="CO64" s="15">
         <f t="shared" si="4"/>
         <v>-1.4546351084812503E-2</v>
       </c>
-      <c r="CP64" s="17">
+      <c r="CP64" s="15">
         <f t="shared" si="5"/>
         <v>9.52380952380949E-3</v>
       </c>
-      <c r="CR64" s="16">
+      <c r="CR64" s="14">
         <f t="shared" si="3"/>
         <v>40.946285714285715</v>
       </c>
     </row>
-    <row r="65" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>56</v>
       </c>
@@ -19442,20 +19441,20 @@
       <c r="CN65" t="s">
         <v>103</v>
       </c>
-      <c r="CO65" s="17">
+      <c r="CO65" s="15">
         <f t="shared" si="4"/>
         <v>-1.0181276384405136E-2</v>
       </c>
-      <c r="CP65" s="17">
+      <c r="CP65" s="15">
         <f t="shared" si="5"/>
         <v>2.4467054263565879E-2</v>
       </c>
-      <c r="CR65" s="16">
+      <c r="CR65" s="14">
         <f t="shared" si="3"/>
         <v>41.255288275193799</v>
       </c>
     </row>
-    <row r="66" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>57</v>
       </c>
@@ -19732,20 +19731,20 @@
       <c r="CN66" t="s">
         <v>103</v>
       </c>
-      <c r="CO66" s="17">
+      <c r="CO66" s="15">
         <f t="shared" si="4"/>
         <v>-1.0463045414069505E-2</v>
       </c>
-      <c r="CP66" s="17">
+      <c r="CP66" s="15">
         <f t="shared" si="5"/>
         <v>4.2119264021280856E-3</v>
       </c>
-      <c r="CR66" s="16">
+      <c r="CR66" s="14">
         <f t="shared" si="3"/>
         <v>90.218399467967188</v>
       </c>
     </row>
-    <row r="67" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>58</v>
       </c>
@@ -20022,20 +20021,20 @@
       <c r="CN67" t="s">
         <v>103</v>
       </c>
-      <c r="CO67" s="17">
+      <c r="CO67" s="15">
         <f t="shared" si="4"/>
         <v>2.1621621621621401E-3</v>
       </c>
-      <c r="CP67" s="17">
+      <c r="CP67" s="15">
         <f t="shared" si="5"/>
         <v>9.6359743040685952E-3</v>
       </c>
-      <c r="CR67" s="16">
+      <c r="CR67" s="14">
         <f t="shared" si="3"/>
         <v>93.391327623126344</v>
       </c>
     </row>
-    <row r="68" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>59</v>
       </c>
@@ -20312,20 +20311,20 @@
       <c r="CN68" t="s">
         <v>103</v>
       </c>
-      <c r="CO68" s="17">
+      <c r="CO68" s="15">
         <f t="shared" si="4"/>
         <v>-2.162496138399761E-2</v>
       </c>
-      <c r="CP68" s="17">
+      <c r="CP68" s="15">
         <f t="shared" si="5"/>
         <v>8.5758039816232756E-3</v>
       </c>
-      <c r="CR68" s="16">
+      <c r="CR68" s="14">
         <f t="shared" si="3"/>
         <v>32.64759877488514</v>
       </c>
     </row>
-    <row r="69" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>60</v>
       </c>
@@ -20602,20 +20601,20 @@
       <c r="CN69" t="s">
         <v>103</v>
       </c>
-      <c r="CO69" s="17">
+      <c r="CO69" s="15">
         <f t="shared" si="4"/>
         <v>-1.770063584808379E-2</v>
       </c>
-      <c r="CP69" s="17">
+      <c r="CP69" s="15">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="CR69" s="16">
+      <c r="CR69" s="14">
         <f t="shared" si="3"/>
         <v>58.19</v>
       </c>
     </row>
-    <row r="70" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>61</v>
       </c>
@@ -20892,20 +20891,20 @@
       <c r="CN70" t="s">
         <v>103</v>
       </c>
-      <c r="CO70" s="17">
+      <c r="CO70" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="CP70" s="17">
+      <c r="CP70" s="15">
         <f t="shared" si="5"/>
         <v>6.0006000600043574E-4</v>
       </c>
-      <c r="CR70" s="16">
+      <c r="CR70" s="14">
         <f t="shared" si="3"/>
         <v>33.329987998799879</v>
       </c>
     </row>
-    <row r="71" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>62</v>
       </c>
@@ -21182,20 +21181,20 @@
       <c r="CN71" t="s">
         <v>103</v>
       </c>
-      <c r="CO71" s="17">
+      <c r="CO71" s="15">
         <f t="shared" si="4"/>
         <v>5.8718406944090473E-3</v>
       </c>
-      <c r="CP71" s="17">
+      <c r="CP71" s="15">
         <f t="shared" si="5"/>
         <v>1.135790005047943E-2</v>
       </c>
-      <c r="CR71" s="16">
+      <c r="CR71" s="14">
         <f t="shared" si="3"/>
         <v>79.229777889954562</v>
       </c>
     </row>
-    <row r="72" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>63</v>
       </c>
@@ -21472,20 +21471,20 @@
       <c r="CN72" t="s">
         <v>103</v>
       </c>
-      <c r="CO72" s="17">
+      <c r="CO72" s="15">
         <f t="shared" si="4"/>
         <v>-1.1977986403366891E-2</v>
       </c>
-      <c r="CP72" s="17">
+      <c r="CP72" s="15">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="CR72" s="16">
+      <c r="CR72" s="14">
         <f t="shared" si="3"/>
         <v>30.89</v>
       </c>
     </row>
-    <row r="73" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>64</v>
       </c>
@@ -21762,20 +21761,20 @@
       <c r="CN73" t="s">
         <v>103</v>
       </c>
-      <c r="CO73" s="17">
+      <c r="CO73" s="15">
         <f t="shared" si="4"/>
         <v>-5.464480874316946E-3</v>
       </c>
-      <c r="CP73" s="17">
+      <c r="CP73" s="15">
         <f t="shared" si="5"/>
         <v>1.2541927956832399E-2</v>
       </c>
-      <c r="CR73" s="16">
+      <c r="CR73" s="14">
         <f t="shared" ref="CR73:CR135" si="6">CL73*CP73+CL73</f>
         <v>68.559213941957111</v>
       </c>
     </row>
-    <row r="74" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>65</v>
       </c>
@@ -22052,20 +22051,20 @@
       <c r="CN74" t="s">
         <v>97</v>
       </c>
-      <c r="CO74" s="17">
+      <c r="CO74" s="15">
         <f t="shared" ref="CO74:CO136" si="7">100%-(M74/CL74)</f>
         <v>-3.0023589963543706E-3</v>
       </c>
-      <c r="CP74" s="17">
+      <c r="CP74" s="15">
         <f t="shared" ref="CP74:CP136" si="8">100%-(CL74/CM74)</f>
         <v>1.2703789964005785E-2</v>
       </c>
-      <c r="CR74" s="16">
+      <c r="CR74" s="14">
         <f t="shared" si="6"/>
         <v>94.444755452043182</v>
       </c>
     </row>
-    <row r="75" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>66</v>
       </c>
@@ -22342,20 +22341,20 @@
       <c r="CN75" t="s">
         <v>97</v>
       </c>
-      <c r="CO75" s="17">
+      <c r="CO75" s="15">
         <f t="shared" si="7"/>
         <v>3.4100596760433532E-4</v>
       </c>
-      <c r="CP75" s="17">
+      <c r="CP75" s="15">
         <f t="shared" si="8"/>
         <v>6.4374047094698517E-3</v>
       </c>
-      <c r="CR75" s="16">
+      <c r="CR75" s="14">
         <f t="shared" si="6"/>
         <v>59.027553786210404</v>
       </c>
     </row>
-    <row r="76" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>67</v>
       </c>
@@ -22632,20 +22631,20 @@
       <c r="CN76" t="s">
         <v>97</v>
       </c>
-      <c r="CO76" s="17">
+      <c r="CO76" s="15">
         <f t="shared" si="7"/>
         <v>-1.4860139860139787E-2</v>
       </c>
-      <c r="CP76" s="17">
+      <c r="CP76" s="15">
         <f t="shared" si="8"/>
         <v>3.4843205574912606E-3</v>
       </c>
-      <c r="CR76" s="16">
+      <c r="CR76" s="14">
         <f t="shared" si="6"/>
         <v>57.399303135888502</v>
       </c>
     </row>
-    <row r="77" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>68</v>
       </c>
@@ -22922,20 +22921,20 @@
       <c r="CN77" t="s">
         <v>97</v>
       </c>
-      <c r="CO77" s="17">
+      <c r="CO77" s="15">
         <f t="shared" si="7"/>
         <v>-8.3180835135585607E-3</v>
       </c>
-      <c r="CP77" s="17">
+      <c r="CP77" s="15">
         <f t="shared" si="8"/>
         <v>6.7746199603437862E-3</v>
       </c>
-      <c r="CR77" s="16">
+      <c r="CR77" s="14">
         <f t="shared" si="6"/>
         <v>60.517222405816263</v>
       </c>
     </row>
-    <row r="78" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>69</v>
       </c>
@@ -23212,20 +23211,20 @@
       <c r="CN78" t="s">
         <v>97</v>
       </c>
-      <c r="CO78" s="17">
+      <c r="CO78" s="15">
         <f t="shared" si="7"/>
         <v>5.2469135802469813E-3</v>
       </c>
-      <c r="CP78" s="17">
+      <c r="CP78" s="15">
         <f t="shared" si="8"/>
         <v>6.1690314620610476E-4</v>
       </c>
-      <c r="CR78" s="16">
+      <c r="CR78" s="14">
         <f t="shared" si="6"/>
         <v>64.839975323874157</v>
       </c>
     </row>
-    <row r="79" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>70</v>
       </c>
@@ -23502,20 +23501,20 @@
       <c r="CN79" t="s">
         <v>97</v>
       </c>
-      <c r="CO79" s="17">
+      <c r="CO79" s="15">
         <f t="shared" si="7"/>
         <v>-2.2278330610427943E-3</v>
       </c>
-      <c r="CP79" s="17">
+      <c r="CP79" s="15">
         <f t="shared" si="8"/>
         <v>1.6505988898626867E-2</v>
       </c>
-      <c r="CR79" s="16">
+      <c r="CR79" s="14">
         <f t="shared" si="6"/>
         <v>68.441348232544541</v>
       </c>
     </row>
-    <row r="80" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>71</v>
       </c>
@@ -23792,20 +23791,20 @@
       <c r="CN80" t="s">
         <v>103</v>
       </c>
-      <c r="CO80" s="17">
+      <c r="CO80" s="15">
         <f t="shared" si="7"/>
         <v>3.3893309755379519E-3</v>
       </c>
-      <c r="CP80" s="17">
+      <c r="CP80" s="15">
         <f t="shared" si="8"/>
         <v>4.2553191489362874E-3</v>
       </c>
-      <c r="CR80" s="16">
+      <c r="CR80" s="14">
         <f t="shared" si="6"/>
         <v>68.148765957446813</v>
       </c>
     </row>
-    <row r="81" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>72</v>
       </c>
@@ -24082,20 +24081,20 @@
       <c r="CN81" t="s">
         <v>398</v>
       </c>
-      <c r="CO81" s="17">
+      <c r="CO81" s="15">
         <f t="shared" si="7"/>
         <v>-9.6385542168675453E-3</v>
       </c>
-      <c r="CP81" s="17">
+      <c r="CP81" s="15">
         <f t="shared" si="8"/>
         <v>2.2379269729093099E-2</v>
       </c>
-      <c r="CR81" s="16">
+      <c r="CR81" s="14">
         <f t="shared" si="6"/>
         <v>42.428739693757365</v>
       </c>
     </row>
-    <row r="82" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>73</v>
       </c>
@@ -24372,20 +24371,20 @@
       <c r="CN82" t="s">
         <v>398</v>
       </c>
-      <c r="CO82" s="17">
+      <c r="CO82" s="15">
         <f t="shared" si="7"/>
         <v>1.2688342585249757E-2</v>
       </c>
-      <c r="CP82" s="17">
+      <c r="CP82" s="15">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="CR82" s="16">
+      <c r="CR82" s="14">
         <f t="shared" si="6"/>
         <v>37.83</v>
       </c>
     </row>
-    <row r="83" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>74</v>
       </c>
@@ -24662,20 +24661,20 @@
       <c r="CN83" t="s">
         <v>398</v>
       </c>
-      <c r="CO83" s="17">
+      <c r="CO83" s="15">
         <f t="shared" si="7"/>
         <v>-3.2036070242050352E-2</v>
       </c>
-      <c r="CP83" s="17">
+      <c r="CP83" s="15">
         <f t="shared" si="8"/>
         <v>3.1041618762933987E-2</v>
       </c>
-      <c r="CR83" s="16">
+      <c r="CR83" s="14">
         <f t="shared" si="6"/>
         <v>43.448093814670038</v>
       </c>
     </row>
-    <row r="84" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>75</v>
       </c>
@@ -24952,20 +24951,20 @@
       <c r="CN84" t="s">
         <v>97</v>
       </c>
-      <c r="CO84" s="17">
+      <c r="CO84" s="15">
         <f t="shared" si="7"/>
         <v>-2.4096385542169418E-3</v>
       </c>
-      <c r="CP84" s="17">
+      <c r="CP84" s="15">
         <f t="shared" si="8"/>
         <v>1.7182130584192379E-3</v>
       </c>
-      <c r="CR84" s="16">
+      <c r="CR84" s="14">
         <f t="shared" si="6"/>
         <v>29.099914089347081</v>
       </c>
     </row>
-    <row r="85" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>76</v>
       </c>
@@ -25242,20 +25241,20 @@
       <c r="CN85" t="s">
         <v>97</v>
       </c>
-      <c r="CO85" s="17">
+      <c r="CO85" s="15">
         <f t="shared" si="7"/>
         <v>-1.1063695274221574E-2</v>
       </c>
-      <c r="CP85" s="17">
+      <c r="CP85" s="15">
         <f t="shared" si="8"/>
         <v>4.0925546985676187E-3</v>
       </c>
-      <c r="CR85" s="16">
+      <c r="CR85" s="14">
         <f t="shared" si="6"/>
         <v>63.528935935778378</v>
       </c>
     </row>
-    <row r="86" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>77</v>
       </c>
@@ -25532,20 +25531,20 @@
       <c r="CN86" t="s">
         <v>97</v>
       </c>
-      <c r="CO86" s="17">
+      <c r="CO86" s="15">
         <f t="shared" si="7"/>
         <v>-6.2208398133747345E-3</v>
       </c>
-      <c r="CP86" s="17">
+      <c r="CP86" s="15">
         <f t="shared" si="8"/>
         <v>6.6210549547561781E-3</v>
       </c>
-      <c r="CR86" s="16">
+      <c r="CR86" s="14">
         <f t="shared" si="6"/>
         <v>45.308013683513572</v>
       </c>
     </row>
-    <row r="87" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>78</v>
       </c>
@@ -25822,20 +25821,20 @@
       <c r="CN87" t="s">
         <v>97</v>
       </c>
-      <c r="CO87" s="17">
+      <c r="CO87" s="15">
         <f t="shared" si="7"/>
         <v>9.4339622641514964E-4</v>
       </c>
-      <c r="CP87" s="17">
+      <c r="CP87" s="15">
         <f t="shared" si="8"/>
         <v>1.6849590353995914E-2</v>
       </c>
-      <c r="CR87" s="16">
+      <c r="CR87" s="14">
         <f t="shared" si="6"/>
         <v>64.671633946514135</v>
       </c>
     </row>
-    <row r="88" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>79</v>
       </c>
@@ -26112,20 +26111,20 @@
       <c r="CN88" t="s">
         <v>97</v>
       </c>
-      <c r="CO88" s="17">
+      <c r="CO88" s="15">
         <f t="shared" si="7"/>
         <v>-1.0443864229765065E-2</v>
       </c>
-      <c r="CP88" s="17">
+      <c r="CP88" s="15">
         <f t="shared" si="8"/>
         <v>6.2272963155164396E-3</v>
       </c>
-      <c r="CR88" s="16">
+      <c r="CR88" s="14">
         <f t="shared" si="6"/>
         <v>38.53850544888428</v>
       </c>
     </row>
-    <row r="89" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>80</v>
       </c>
@@ -26402,20 +26401,20 @@
       <c r="CN89" t="s">
         <v>97</v>
       </c>
-      <c r="CO89" s="17">
+      <c r="CO89" s="15">
         <f t="shared" si="7"/>
         <v>-3.1655587211143477E-3</v>
       </c>
-      <c r="CP89" s="17">
+      <c r="CP89" s="15">
         <f t="shared" si="8"/>
         <v>1.0028204324663115E-2</v>
       </c>
-      <c r="CR89" s="16">
+      <c r="CR89" s="14">
         <f t="shared" si="6"/>
         <v>31.906790974616108</v>
       </c>
     </row>
-    <row r="90" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>81</v>
       </c>
@@ -26692,20 +26691,20 @@
       <c r="CN90" t="s">
         <v>97</v>
       </c>
-      <c r="CO90" s="17">
+      <c r="CO90" s="15">
         <f t="shared" si="7"/>
         <v>-2.0915975477821869E-2</v>
       </c>
-      <c r="CP90" s="17">
+      <c r="CP90" s="15">
         <f t="shared" si="8"/>
         <v>9.2890317970703018E-3</v>
       </c>
-      <c r="CR90" s="16">
+      <c r="CR90" s="14">
         <f t="shared" si="6"/>
         <v>27.987584851732759</v>
       </c>
     </row>
-    <row r="91" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>82</v>
       </c>
@@ -26982,20 +26981,20 @@
       <c r="CN91" t="s">
         <v>97</v>
       </c>
-      <c r="CO91" s="17">
+      <c r="CO91" s="15">
         <f t="shared" si="7"/>
         <v>-2.8697571743929728E-3</v>
       </c>
-      <c r="CP91" s="17">
+      <c r="CP91" s="15">
         <f t="shared" si="8"/>
         <v>6.3610440886160413E-3</v>
       </c>
-      <c r="CR91" s="16">
+      <c r="CR91" s="14">
         <f t="shared" si="6"/>
         <v>45.588155297214307</v>
       </c>
     </row>
-    <row r="92" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>83</v>
       </c>
@@ -27272,20 +27271,20 @@
       <c r="CN92" t="s">
         <v>97</v>
       </c>
-      <c r="CO92" s="17">
+      <c r="CO92" s="15">
         <f t="shared" si="7"/>
         <v>-6.0641627543036591E-3</v>
       </c>
-      <c r="CP92" s="17">
+      <c r="CP92" s="15">
         <f t="shared" si="8"/>
         <v>3.5087719298245723E-3</v>
       </c>
-      <c r="CR92" s="16">
+      <c r="CR92" s="14">
         <f t="shared" si="6"/>
         <v>51.299368421052627</v>
       </c>
     </row>
-    <row r="93" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>84</v>
       </c>
@@ -27562,20 +27561,20 @@
       <c r="CN93" t="s">
         <v>97</v>
       </c>
-      <c r="CO93" s="17">
+      <c r="CO93" s="15">
         <f t="shared" si="7"/>
         <v>-3.3659730722153114E-3</v>
       </c>
-      <c r="CP93" s="17">
+      <c r="CP93" s="15">
         <f t="shared" si="8"/>
         <v>4.4173648134044896E-3</v>
       </c>
-      <c r="CR93" s="16">
+      <c r="CR93" s="14">
         <f t="shared" si="6"/>
         <v>65.648718964204122</v>
       </c>
     </row>
-    <row r="94" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>85</v>
       </c>
@@ -27852,20 +27851,20 @@
       <c r="CN94" t="s">
         <v>97</v>
       </c>
-      <c r="CO94" s="17">
+      <c r="CO94" s="15">
         <f t="shared" si="7"/>
         <v>-8.5540838852096179E-3</v>
       </c>
-      <c r="CP94" s="17">
+      <c r="CP94" s="15">
         <f t="shared" si="8"/>
         <v>7.6670317634173202E-3</v>
       </c>
-      <c r="CR94" s="16">
+      <c r="CR94" s="14">
         <f t="shared" si="6"/>
         <v>36.517853231106244</v>
       </c>
     </row>
-    <row r="95" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>86</v>
       </c>
@@ -28142,20 +28141,20 @@
       <c r="CN95" t="s">
         <v>97</v>
       </c>
-      <c r="CO95" s="17">
+      <c r="CO95" s="15">
         <f t="shared" si="7"/>
         <v>-2.8370403994553151E-3</v>
       </c>
-      <c r="CP95" s="17">
+      <c r="CP95" s="15">
         <f t="shared" si="8"/>
         <v>3.2801719262526285E-3</v>
       </c>
-      <c r="CR95" s="16">
+      <c r="CR95" s="14">
         <f t="shared" si="6"/>
         <v>88.40904875014138</v>
       </c>
     </row>
-    <row r="96" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>87</v>
       </c>
@@ -28432,20 +28431,20 @@
       <c r="CN96" t="s">
         <v>97</v>
       </c>
-      <c r="CO96" s="17">
+      <c r="CO96" s="15">
         <f t="shared" si="7"/>
         <v>-3.3581194531062675E-2</v>
       </c>
-      <c r="CP96" s="17">
+      <c r="CP96" s="15">
         <f t="shared" si="8"/>
         <v>2.8884230142091849E-2</v>
       </c>
-      <c r="CR96" s="16">
+      <c r="CR96" s="14">
         <f t="shared" si="6"/>
         <v>42.894183554623808</v>
       </c>
     </row>
-    <row r="97" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>88</v>
       </c>
@@ -28722,20 +28721,20 @@
       <c r="CN97" t="s">
         <v>97</v>
       </c>
-      <c r="CO97" s="17">
+      <c r="CO97" s="15">
         <f t="shared" si="7"/>
         <v>-1.7429938482570018E-2</v>
       </c>
-      <c r="CP97" s="17">
+      <c r="CP97" s="15">
         <f t="shared" si="8"/>
         <v>2.3907483598354373E-2</v>
       </c>
-      <c r="CR97" s="16">
+      <c r="CR97" s="14">
         <f t="shared" si="6"/>
         <v>89.878598910263548</v>
       </c>
     </row>
-    <row r="98" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>89</v>
       </c>
@@ -29012,20 +29011,20 @@
       <c r="CN98" t="s">
         <v>97</v>
       </c>
-      <c r="CO98" s="17">
+      <c r="CO98" s="15">
         <f t="shared" si="7"/>
         <v>-1.698822958378754E-3</v>
       </c>
-      <c r="CP98" s="17">
+      <c r="CP98" s="15">
         <f t="shared" si="8"/>
         <v>1.2817441303306309E-2</v>
       </c>
-      <c r="CR98" s="16">
+      <c r="CR98" s="14">
         <f t="shared" si="6"/>
         <v>83.466285337805473</v>
       </c>
     </row>
-    <row r="99" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>90</v>
       </c>
@@ -29302,20 +29301,20 @@
       <c r="CN99" t="s">
         <v>97</v>
       </c>
-      <c r="CO99" s="17">
+      <c r="CO99" s="15">
         <f t="shared" si="7"/>
         <v>-8.9402529437418998E-3</v>
       </c>
-      <c r="CP99" s="17">
+      <c r="CP99" s="15">
         <f t="shared" si="8"/>
         <v>1.3126748439853619E-2</v>
       </c>
-      <c r="CR99" s="16">
+      <c r="CR99" s="14">
         <f t="shared" si="6"/>
         <v>46.461992683451683</v>
       </c>
     </row>
-    <row r="100" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>91</v>
       </c>
@@ -29592,20 +29591,20 @@
       <c r="CN100" t="s">
         <v>97</v>
       </c>
-      <c r="CO100" s="17">
+      <c r="CO100" s="15">
         <f t="shared" si="7"/>
         <v>-9.5020904599012468E-3</v>
       </c>
-      <c r="CP100" s="17">
+      <c r="CP100" s="15">
         <f t="shared" si="8"/>
         <v>1.1830985915493031E-2</v>
       </c>
-      <c r="CR100" s="16">
+      <c r="CR100" s="14">
         <f t="shared" si="6"/>
         <v>53.242546478873244</v>
       </c>
     </row>
-    <row r="101" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>92</v>
       </c>
@@ -29882,20 +29881,20 @@
       <c r="CN101" t="s">
         <v>97</v>
       </c>
-      <c r="CO101" s="17">
+      <c r="CO101" s="15">
         <f t="shared" si="7"/>
         <v>-5.3007605439041594E-3</v>
       </c>
-      <c r="CP101" s="17">
+      <c r="CP101" s="15">
         <f t="shared" si="8"/>
         <v>8.681745487777115E-3</v>
       </c>
-      <c r="CR101" s="16">
+      <c r="CR101" s="14">
         <f t="shared" si="6"/>
         <v>87.533401873429298</v>
       </c>
     </row>
-    <row r="102" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>93</v>
       </c>
@@ -30172,20 +30171,20 @@
       <c r="CN102" t="s">
         <v>97</v>
       </c>
-      <c r="CO102" s="17">
+      <c r="CO102" s="15">
         <f t="shared" si="7"/>
         <v>-6.8476977567886177E-3</v>
       </c>
-      <c r="CP102" s="17">
+      <c r="CP102" s="15">
         <f t="shared" si="8"/>
         <v>1.0976179355441373E-2</v>
       </c>
-      <c r="CR102" s="16">
+      <c r="CR102" s="14">
         <f t="shared" si="6"/>
         <v>42.814841195702947</v>
       </c>
     </row>
-    <row r="103" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>94</v>
       </c>
@@ -30462,20 +30461,20 @@
       <c r="CN103" t="s">
         <v>97</v>
       </c>
-      <c r="CO103" s="17">
+      <c r="CO103" s="15">
         <f t="shared" si="7"/>
         <v>-7.1739130434782528E-3</v>
       </c>
-      <c r="CP103" s="17">
+      <c r="CP103" s="15">
         <f t="shared" si="8"/>
         <v>1.3722126929674117E-2</v>
       </c>
-      <c r="CR103" s="16">
+      <c r="CR103" s="14">
         <f t="shared" si="6"/>
         <v>46.631217838765011</v>
       </c>
     </row>
-    <row r="104" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>95</v>
       </c>
@@ -30752,20 +30751,20 @@
       <c r="CN104" t="s">
         <v>97</v>
       </c>
-      <c r="CO104" s="17">
+      <c r="CO104" s="15">
         <f t="shared" si="7"/>
         <v>-2.0810810810810931E-2</v>
       </c>
-      <c r="CP104" s="17">
+      <c r="CP104" s="15">
         <f t="shared" si="8"/>
         <v>1.2016021361815787E-2</v>
       </c>
-      <c r="CR104" s="16">
+      <c r="CR104" s="14">
         <f t="shared" si="6"/>
         <v>37.444592790387183</v>
       </c>
     </row>
-    <row r="105" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>96</v>
       </c>
@@ -31042,20 +31041,20 @@
       <c r="CN105" t="s">
         <v>97</v>
       </c>
-      <c r="CO105" s="17">
+      <c r="CO105" s="15">
         <f t="shared" si="7"/>
         <v>7.0028011204481544E-4</v>
       </c>
-      <c r="CP105" s="17">
+      <c r="CP105" s="15">
         <f t="shared" si="8"/>
         <v>6.6086956521739237E-3</v>
       </c>
-      <c r="CR105" s="16">
+      <c r="CR105" s="14">
         <f t="shared" si="6"/>
         <v>28.748744347826086</v>
       </c>
     </row>
-    <row r="106" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>97</v>
       </c>
@@ -31332,20 +31331,20 @@
       <c r="CN106" t="s">
         <v>97</v>
       </c>
-      <c r="CO106" s="17">
+      <c r="CO106" s="15">
         <f t="shared" si="7"/>
         <v>-2.8690288337398506E-3</v>
       </c>
-      <c r="CP106" s="17">
+      <c r="CP106" s="15">
         <f t="shared" si="8"/>
         <v>7.96926142023624E-3</v>
       </c>
-      <c r="CR106" s="16">
+      <c r="CR106" s="14">
         <f t="shared" si="6"/>
         <v>70.265537213604659</v>
       </c>
     </row>
-    <row r="107" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>98</v>
       </c>
@@ -31622,20 +31621,20 @@
       <c r="CN107" t="s">
         <v>97</v>
       </c>
-      <c r="CO107" s="17">
+      <c r="CO107" s="15">
         <f t="shared" si="7"/>
         <v>-1.0264832683226643E-3</v>
       </c>
-      <c r="CP107" s="17">
+      <c r="CP107" s="15">
         <f t="shared" si="8"/>
         <v>8.2051282051276431E-4</v>
       </c>
-      <c r="CR107" s="16">
+      <c r="CR107" s="14">
         <f t="shared" si="6"/>
         <v>48.749967179487179</v>
       </c>
     </row>
-    <row r="108" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>99</v>
       </c>
@@ -31912,20 +31911,20 @@
       <c r="CN108" t="s">
         <v>103</v>
       </c>
-      <c r="CO108" s="17">
+      <c r="CO108" s="15">
         <f t="shared" si="7"/>
         <v>-5.712109672505683E-3</v>
       </c>
-      <c r="CP108" s="17">
+      <c r="CP108" s="15">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="CR108" s="16">
+      <c r="CR108" s="14">
         <f t="shared" si="6"/>
         <v>52.52</v>
       </c>
     </row>
-    <row r="109" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>100</v>
       </c>
@@ -32202,20 +32201,20 @@
       <c r="CN109" t="s">
         <v>97</v>
       </c>
-      <c r="CO109" s="17">
+      <c r="CO109" s="15">
         <f t="shared" si="7"/>
         <v>-3.2393186260820883E-2</v>
       </c>
-      <c r="CP109" s="17">
+      <c r="CP109" s="15">
         <f t="shared" si="8"/>
         <v>6.3817980022197185E-3</v>
       </c>
-      <c r="CR109" s="16">
+      <c r="CR109" s="14">
         <f t="shared" si="6"/>
         <v>36.038532186459491</v>
       </c>
     </row>
-    <row r="110" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>101</v>
       </c>
@@ -32492,20 +32491,20 @@
       <c r="CN110" t="s">
         <v>97</v>
       </c>
-      <c r="CO110" s="17">
+      <c r="CO110" s="15">
         <f t="shared" si="7"/>
         <v>4.5482737233822901E-3</v>
       </c>
-      <c r="CP110" s="17">
+      <c r="CP110" s="15">
         <f t="shared" si="8"/>
         <v>2.1660649819494893E-3</v>
       </c>
-      <c r="CR110" s="16">
+      <c r="CR110" s="14">
         <f t="shared" si="6"/>
         <v>96.949545126353783</v>
       </c>
     </row>
-    <row r="111" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>102</v>
       </c>
@@ -32782,20 +32781,20 @@
       <c r="CN111" t="s">
         <v>103</v>
       </c>
-      <c r="CO111" s="17">
+      <c r="CO111" s="15">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="CP111" s="17">
+      <c r="CP111" s="15">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="CR111" s="16">
+      <c r="CR111" s="14">
         <f t="shared" si="6"/>
         <v>40</v>
       </c>
     </row>
-    <row r="112" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>103</v>
       </c>
@@ -33072,20 +33071,20 @@
       <c r="CN112" t="s">
         <v>103</v>
       </c>
-      <c r="CO112" s="17">
+      <c r="CO112" s="15">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="CP112" s="17">
+      <c r="CP112" s="15">
         <f t="shared" si="8"/>
         <v>1.3733183856502351E-2</v>
       </c>
-      <c r="CR112" s="16">
+      <c r="CR112" s="14">
         <f t="shared" si="6"/>
         <v>35.673270739910315</v>
       </c>
     </row>
-    <row r="113" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>104</v>
       </c>
@@ -33362,20 +33361,20 @@
       <c r="CN113" t="s">
         <v>103</v>
       </c>
-      <c r="CO113" s="17">
+      <c r="CO113" s="15">
         <f t="shared" si="7"/>
         <v>-1.2630879175668852E-2</v>
       </c>
-      <c r="CP113" s="17">
+      <c r="CP113" s="15">
         <f t="shared" si="8"/>
         <v>9.8732927431298689E-3</v>
       </c>
-      <c r="CR113" s="16">
+      <c r="CR113" s="14">
         <f t="shared" si="6"/>
         <v>60.764076024354125</v>
       </c>
     </row>
-    <row r="114" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>105</v>
       </c>
@@ -33652,20 +33651,20 @@
       <c r="CN114" t="s">
         <v>103</v>
       </c>
-      <c r="CO114" s="17">
+      <c r="CO114" s="15">
         <f t="shared" si="7"/>
         <v>-1.5927545284197375E-2</v>
       </c>
-      <c r="CP114" s="17">
+      <c r="CP114" s="15">
         <f t="shared" si="8"/>
         <v>1.2642614862781287E-2</v>
       </c>
-      <c r="CR114" s="16">
+      <c r="CR114" s="14">
         <f t="shared" si="6"/>
         <v>32.424816527906259</v>
       </c>
     </row>
-    <row r="115" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>106</v>
       </c>
@@ -33942,20 +33941,20 @@
       <c r="CN115" t="s">
         <v>103</v>
       </c>
-      <c r="CO115" s="17">
+      <c r="CO115" s="15">
         <f t="shared" si="7"/>
         <v>-1.6217059098705855E-2</v>
       </c>
-      <c r="CP115" s="17">
+      <c r="CP115" s="15">
         <f t="shared" si="8"/>
         <v>1.0950030845157444E-2</v>
       </c>
-      <c r="CR115" s="16">
+      <c r="CR115" s="14">
         <f t="shared" si="6"/>
         <v>64.832225478099943</v>
       </c>
     </row>
-    <row r="116" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>107</v>
       </c>
@@ -34232,20 +34231,20 @@
       <c r="CN116" t="s">
         <v>103</v>
       </c>
-      <c r="CO116" s="17">
+      <c r="CO116" s="15">
         <f t="shared" si="7"/>
         <v>-1.1148405658115479E-2</v>
       </c>
-      <c r="CP116" s="17">
+      <c r="CP116" s="15">
         <f t="shared" si="8"/>
         <v>2.1810506566604104E-2</v>
       </c>
-      <c r="CR116" s="16">
+      <c r="CR116" s="14">
         <f t="shared" si="6"/>
         <v>85.239432457786123</v>
       </c>
     </row>
-    <row r="117" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>108</v>
       </c>
@@ -34522,20 +34521,20 @@
       <c r="CN117" t="s">
         <v>103</v>
       </c>
-      <c r="CO117" s="17">
+      <c r="CO117" s="15">
         <f t="shared" si="7"/>
         <v>-1.4027579648121735E-2</v>
       </c>
-      <c r="CP117" s="17">
+      <c r="CP117" s="15">
         <f t="shared" si="8"/>
         <v>8.9538171536285294E-3</v>
       </c>
-      <c r="CR117" s="16">
+      <c r="CR117" s="14">
         <f t="shared" si="6"/>
         <v>42.436597549481618</v>
       </c>
     </row>
-    <row r="118" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>109</v>
       </c>
@@ -34812,20 +34811,20 @@
       <c r="CN118" t="s">
         <v>103</v>
       </c>
-      <c r="CO118" s="17">
+      <c r="CO118" s="15">
         <f t="shared" si="7"/>
         <v>-1.2316010814058309E-2</v>
       </c>
-      <c r="CP118" s="17">
+      <c r="CP118" s="15">
         <f t="shared" si="8"/>
         <v>1.333728512151755E-2</v>
       </c>
-      <c r="CR118" s="16">
+      <c r="CR118" s="14">
         <f t="shared" si="6"/>
         <v>33.733998221695316</v>
       </c>
     </row>
-    <row r="119" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>110</v>
       </c>
@@ -35102,20 +35101,20 @@
       <c r="CN119" t="s">
         <v>103</v>
       </c>
-      <c r="CO119" s="17">
+      <c r="CO119" s="15">
         <f t="shared" si="7"/>
         <v>-9.8784194528873659E-3</v>
       </c>
-      <c r="CP119" s="17">
+      <c r="CP119" s="15">
         <f t="shared" si="8"/>
         <v>3.0303030303029388E-3</v>
       </c>
-      <c r="CR119" s="16">
+      <c r="CR119" s="14">
         <f t="shared" si="6"/>
         <v>52.799515151515145</v>
       </c>
     </row>
-    <row r="120" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>111</v>
       </c>
@@ -35392,20 +35391,20 @@
       <c r="CN120" t="s">
         <v>103</v>
       </c>
-      <c r="CO120" s="17">
+      <c r="CO120" s="15">
         <f t="shared" si="7"/>
         <v>-8.6535133264105113E-3</v>
       </c>
-      <c r="CP120" s="17">
+      <c r="CP120" s="15">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="CR120" s="16">
+      <c r="CR120" s="14">
         <f t="shared" si="6"/>
         <v>28.89</v>
       </c>
     </row>
-    <row r="121" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>112</v>
       </c>
@@ -35682,20 +35681,20 @@
       <c r="CN121" t="s">
         <v>103</v>
       </c>
-      <c r="CO121" s="17">
+      <c r="CO121" s="15">
         <f t="shared" si="7"/>
         <v>-2.5879917184266077E-3</v>
       </c>
-      <c r="CP121" s="17">
+      <c r="CP121" s="15">
         <f t="shared" si="8"/>
         <v>5.1493305870237149E-3</v>
       </c>
-      <c r="CR121" s="16">
+      <c r="CR121" s="14">
         <f t="shared" si="6"/>
         <v>77.677940267765194</v>
       </c>
     </row>
-    <row r="122" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>113</v>
       </c>
@@ -35972,20 +35971,20 @@
       <c r="CN122" t="s">
         <v>103</v>
       </c>
-      <c r="CO122" s="17">
+      <c r="CO122" s="15">
         <f t="shared" si="7"/>
         <v>-8.0565603419928689E-3</v>
       </c>
-      <c r="CP122" s="17">
+      <c r="CP122" s="15">
         <f t="shared" si="8"/>
         <v>1.4102771924136781E-2</v>
       </c>
-      <c r="CR122" s="16">
+      <c r="CR122" s="14">
         <f t="shared" si="6"/>
         <v>61.677730588426002</v>
       </c>
     </row>
-    <row r="123" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>114</v>
       </c>
@@ -36262,20 +36261,20 @@
       <c r="CN123" t="s">
         <v>103</v>
       </c>
-      <c r="CO123" s="17">
+      <c r="CO123" s="15">
         <f t="shared" si="7"/>
         <v>-1.1568123393316254E-2</v>
       </c>
-      <c r="CP123" s="17">
+      <c r="CP123" s="15">
         <f t="shared" si="8"/>
         <v>6.2043795620437825E-3</v>
       </c>
-      <c r="CR123" s="16">
+      <c r="CR123" s="14">
         <f t="shared" si="6"/>
         <v>54.797890510948903</v>
       </c>
     </row>
-    <row r="124" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>115</v>
       </c>
@@ -36552,20 +36551,20 @@
       <c r="CN124" t="s">
         <v>103</v>
       </c>
-      <c r="CO124" s="17">
+      <c r="CO124" s="15">
         <f t="shared" si="7"/>
         <v>-5.0031269543464596E-3</v>
       </c>
-      <c r="CP124" s="17">
+      <c r="CP124" s="15">
         <f t="shared" si="8"/>
         <v>4.3586550435865679E-3</v>
       </c>
-      <c r="CR124" s="16">
+      <c r="CR124" s="14">
         <f t="shared" si="6"/>
         <v>48.179084682440845</v>
       </c>
     </row>
-    <row r="125" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>116</v>
       </c>
@@ -36842,20 +36841,20 @@
       <c r="CN125" t="s">
         <v>103</v>
       </c>
-      <c r="CO125" s="17">
+      <c r="CO125" s="15">
         <f t="shared" si="7"/>
         <v>-8.1999219055057804E-3</v>
       </c>
-      <c r="CP125" s="17">
+      <c r="CP125" s="15">
         <f t="shared" si="8"/>
         <v>7.16231016001323E-3</v>
       </c>
-      <c r="CR125" s="16">
+      <c r="CR125" s="14">
         <f t="shared" si="6"/>
         <v>51.586853526395878</v>
       </c>
     </row>
-    <row r="126" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>117</v>
       </c>
@@ -37132,20 +37131,20 @@
       <c r="CN126" t="s">
         <v>103</v>
       </c>
-      <c r="CO126" s="17">
+      <c r="CO126" s="15">
         <f t="shared" si="7"/>
         <v>-3.4419923061348445E-3</v>
       </c>
-      <c r="CP126" s="17">
+      <c r="CP126" s="15">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="CR126" s="16">
+      <c r="CR126" s="14">
         <f t="shared" si="6"/>
         <v>49.39</v>
       </c>
     </row>
-    <row r="127" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>118</v>
       </c>
@@ -37422,20 +37421,20 @@
       <c r="CN127" t="s">
         <v>103</v>
       </c>
-      <c r="CO127" s="17">
+      <c r="CO127" s="15">
         <f t="shared" si="7"/>
         <v>-9.1043307086613456E-3</v>
       </c>
-      <c r="CP127" s="17">
+      <c r="CP127" s="15">
         <f t="shared" si="8"/>
         <v>6.3569682151588536E-3</v>
       </c>
-      <c r="CR127" s="16">
+      <c r="CR127" s="14">
         <f t="shared" si="6"/>
         <v>40.898347188264054</v>
       </c>
     </row>
-    <row r="128" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>119</v>
       </c>
@@ -37712,20 +37711,20 @@
       <c r="CN128" t="s">
         <v>103</v>
       </c>
-      <c r="CO128" s="17">
+      <c r="CO128" s="15">
         <f t="shared" si="7"/>
         <v>-6.6047840057121832E-3</v>
       </c>
-      <c r="CP128" s="17">
+      <c r="CP128" s="15">
         <f t="shared" si="8"/>
         <v>1.6848016848016734E-2</v>
       </c>
-      <c r="CR128" s="16">
+      <c r="CR128" s="14">
         <f t="shared" si="6"/>
         <v>56.963825903825899</v>
       </c>
     </row>
-    <row r="129" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>120</v>
       </c>
@@ -38002,20 +38001,20 @@
       <c r="CN129" t="s">
         <v>103</v>
       </c>
-      <c r="CO129" s="17">
+      <c r="CO129" s="15">
         <f t="shared" si="7"/>
         <v>-1.0112359550561889E-2</v>
       </c>
-      <c r="CP129" s="17">
+      <c r="CP129" s="15">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="CR129" s="16">
+      <c r="CR129" s="14">
         <f t="shared" si="6"/>
         <v>26.7</v>
       </c>
     </row>
-    <row r="130" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>121</v>
       </c>
@@ -38292,20 +38291,20 @@
       <c r="CN130" t="s">
         <v>103</v>
       </c>
-      <c r="CO130" s="17">
+      <c r="CO130" s="15">
         <f t="shared" si="7"/>
         <v>-9.0783501085454077E-3</v>
       </c>
-      <c r="CP130" s="17">
+      <c r="CP130" s="15">
         <f t="shared" si="8"/>
         <v>2.9496265083317375E-2</v>
       </c>
-      <c r="CR130" s="16">
+      <c r="CR130" s="14">
         <f t="shared" si="6"/>
         <v>52.164575751771693</v>
       </c>
     </row>
-    <row r="131" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>122</v>
       </c>
@@ -38582,20 +38581,20 @@
       <c r="CN131" t="s">
         <v>103</v>
       </c>
-      <c r="CO131" s="17">
+      <c r="CO131" s="15">
         <f t="shared" si="7"/>
         <v>-5.2264808362370019E-3</v>
       </c>
-      <c r="CP131" s="17">
+      <c r="CP131" s="15">
         <f t="shared" si="8"/>
         <v>1.4229636898920428E-2</v>
       </c>
-      <c r="CR131" s="16">
+      <c r="CR131" s="14">
         <f t="shared" si="6"/>
         <v>40.751746810598625</v>
       </c>
     </row>
-    <row r="132" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>123</v>
       </c>
@@ -38872,20 +38871,20 @@
       <c r="CN132" t="s">
         <v>103</v>
       </c>
-      <c r="CO132" s="17">
+      <c r="CO132" s="15">
         <f t="shared" si="7"/>
         <v>-2.3017902813299296E-2</v>
       </c>
-      <c r="CP132" s="17">
+      <c r="CP132" s="15">
         <f t="shared" si="8"/>
         <v>2.3197715917201989E-2</v>
       </c>
-      <c r="CR132" s="16">
+      <c r="CR132" s="14">
         <f t="shared" si="6"/>
         <v>28.004921484653821</v>
       </c>
     </row>
-    <row r="133" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>124</v>
       </c>
@@ -39162,20 +39161,20 @@
       <c r="CN133" t="s">
         <v>103</v>
       </c>
-      <c r="CO133" s="17">
+      <c r="CO133" s="15">
         <f t="shared" si="7"/>
         <v>-1.4104882459312851E-2</v>
       </c>
-      <c r="CP133" s="17">
+      <c r="CP133" s="15">
         <f t="shared" si="8"/>
         <v>4.556437694166382E-2</v>
       </c>
-      <c r="CR133" s="16">
+      <c r="CR133" s="14">
         <f t="shared" si="6"/>
         <v>28.909855022437004</v>
       </c>
     </row>
-    <row r="134" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>125</v>
       </c>
@@ -39452,20 +39451,20 @@
       <c r="CN134" t="s">
         <v>103</v>
       </c>
-      <c r="CO134" s="17">
+      <c r="CO134" s="15">
         <f t="shared" si="7"/>
         <v>1.3182674199623379E-2</v>
       </c>
-      <c r="CP134" s="17">
+      <c r="CP134" s="15">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="CR134" s="16">
+      <c r="CR134" s="14">
         <f t="shared" si="6"/>
         <v>37.17</v>
       </c>
     </row>
-    <row r="135" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>126</v>
       </c>
@@ -39742,20 +39741,20 @@
       <c r="CN135" t="s">
         <v>103</v>
       </c>
-      <c r="CO135" s="17">
+      <c r="CO135" s="15">
         <f t="shared" si="7"/>
         <v>-1.9463505926387903E-2</v>
       </c>
-      <c r="CP135" s="17">
+      <c r="CP135" s="15">
         <f t="shared" si="8"/>
         <v>1.9571865443425041E-2</v>
       </c>
-      <c r="CR135" s="16">
+      <c r="CR135" s="14">
         <f t="shared" si="6"/>
         <v>81.718685015290518</v>
       </c>
     </row>
-    <row r="136" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>127</v>
       </c>
@@ -40032,20 +40031,20 @@
       <c r="CN136" t="s">
         <v>103</v>
       </c>
-      <c r="CO136" s="17">
+      <c r="CO136" s="15">
         <f t="shared" si="7"/>
         <v>-7.2727272727268755E-4</v>
       </c>
-      <c r="CP136" s="17">
+      <c r="CP136" s="15">
         <f t="shared" si="8"/>
         <v>6.0240963855421326E-3</v>
       </c>
-      <c r="CR136" s="16">
+      <c r="CR136" s="14">
         <f t="shared" ref="CR136:CR178" si="9">CL136*CP136+CL136</f>
         <v>82.996987951807228</v>
       </c>
     </row>
-    <row r="137" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>128</v>
       </c>
@@ -40322,20 +40321,20 @@
       <c r="CN137" t="s">
         <v>103</v>
       </c>
-      <c r="CO137" s="17">
+      <c r="CO137" s="15">
         <f t="shared" ref="CO137:CO157" si="10">100%-(M137/CL137)</f>
         <v>-5.3506592776610962E-3</v>
       </c>
-      <c r="CP137" s="17">
+      <c r="CP137" s="15">
         <f t="shared" ref="CP137:CP157" si="11">100%-(CL137/CM137)</f>
         <v>7.6379606645027298E-4</v>
       </c>
-      <c r="CR137" s="16">
+      <c r="CR137" s="14">
         <f t="shared" si="9"/>
         <v>52.369969448157342</v>
       </c>
     </row>
-    <row r="138" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>129</v>
       </c>
@@ -40612,20 +40611,20 @@
       <c r="CN138" t="s">
         <v>103</v>
       </c>
-      <c r="CO138" s="17">
+      <c r="CO138" s="15">
         <f t="shared" si="10"/>
         <v>-1.538461538461533E-2</v>
       </c>
-      <c r="CP138" s="17">
+      <c r="CP138" s="15">
         <f t="shared" si="11"/>
         <v>7.7419354838709653E-2</v>
       </c>
-      <c r="CR138" s="16">
+      <c r="CR138" s="14">
         <f t="shared" si="9"/>
         <v>30.814193548387099</v>
       </c>
     </row>
-    <row r="139" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>130</v>
       </c>
@@ -40902,20 +40901,20 @@
       <c r="CN139" t="s">
         <v>103</v>
       </c>
-      <c r="CO139" s="17">
+      <c r="CO139" s="15">
         <f t="shared" si="10"/>
         <v>-8.110300081103361E-4</v>
       </c>
-      <c r="CP139" s="17">
+      <c r="CP139" s="15">
         <f t="shared" si="11"/>
         <v>5.9123891427035336E-3</v>
       </c>
-      <c r="CR139" s="16">
+      <c r="CR139" s="14">
         <f t="shared" si="9"/>
         <v>37.208699274388607</v>
       </c>
     </row>
-    <row r="140" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>131</v>
       </c>
@@ -41192,20 +41191,20 @@
       <c r="CN140" t="s">
         <v>103</v>
       </c>
-      <c r="CO140" s="17">
+      <c r="CO140" s="15">
         <f t="shared" si="10"/>
         <v>-9.6940973718224743E-3</v>
       </c>
-      <c r="CP140" s="17">
+      <c r="CP140" s="15">
         <f t="shared" si="11"/>
         <v>1.1077971878994397E-2</v>
       </c>
-      <c r="CR140" s="16">
+      <c r="CR140" s="14">
         <f t="shared" si="9"/>
         <v>46.934239454622919</v>
       </c>
     </row>
-    <row r="141" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>132</v>
       </c>
@@ -41482,20 +41481,20 @@
       <c r="CN141" t="s">
         <v>103</v>
       </c>
-      <c r="CO141" s="17">
+      <c r="CO141" s="15">
         <f t="shared" si="10"/>
         <v>-1.1800532927293439E-2</v>
       </c>
-      <c r="CP141" s="17">
+      <c r="CP141" s="15">
         <f t="shared" si="11"/>
         <v>8.6792452830188882E-3</v>
       </c>
-      <c r="CR141" s="16">
+      <c r="CR141" s="14">
         <f t="shared" si="9"/>
         <v>26.498003773584905</v>
       </c>
     </row>
-    <row r="142" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>133</v>
       </c>
@@ -41772,20 +41771,20 @@
       <c r="CN142" t="s">
         <v>103</v>
       </c>
-      <c r="CO142" s="17">
+      <c r="CO142" s="15">
         <f t="shared" si="10"/>
         <v>-8.9898273006858709E-3</v>
       </c>
-      <c r="CP142" s="17">
+      <c r="CP142" s="15">
         <f t="shared" si="11"/>
         <v>1.8802228412256206E-2</v>
       </c>
-      <c r="CR142" s="16">
+      <c r="CR142" s="14">
         <f t="shared" si="9"/>
         <v>43.064770194986075</v>
       </c>
     </row>
-    <row r="143" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>134</v>
       </c>
@@ -42062,20 +42061,20 @@
       <c r="CN143" t="s">
         <v>103</v>
       </c>
-      <c r="CO143" s="17">
+      <c r="CO143" s="15">
         <f t="shared" si="10"/>
         <v>-9.1353996737357779E-3</v>
       </c>
-      <c r="CP143" s="17">
+      <c r="CP143" s="15">
         <f t="shared" si="11"/>
         <v>7.1266601878847702E-3</v>
       </c>
-      <c r="CR143" s="16">
+      <c r="CR143" s="14">
         <f t="shared" si="9"/>
         <v>30.868432134758667</v>
       </c>
     </row>
-    <row r="144" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>135</v>
       </c>
@@ -42352,20 +42351,20 @@
       <c r="CN144" t="s">
         <v>97</v>
       </c>
-      <c r="CO144" s="17">
+      <c r="CO144" s="15">
         <f t="shared" si="10"/>
         <v>-3.4881185960322636E-3</v>
       </c>
-      <c r="CP144" s="17">
+      <c r="CP144" s="15">
         <f t="shared" si="11"/>
         <v>3.6924413553431901E-3</v>
       </c>
-      <c r="CR144" s="16">
+      <c r="CR144" s="14">
         <f t="shared" si="9"/>
         <v>46.039372284969588</v>
       </c>
     </row>
-    <row r="145" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>136</v>
       </c>
@@ -42642,20 +42641,20 @@
       <c r="CN145" t="s">
         <v>97</v>
       </c>
-      <c r="CO145" s="17">
+      <c r="CO145" s="15">
         <f t="shared" si="10"/>
         <v>-6.2380869866573985E-3</v>
       </c>
-      <c r="CP145" s="17">
+      <c r="CP145" s="15">
         <f t="shared" si="11"/>
         <v>4.4850784888734729E-3</v>
       </c>
-      <c r="CR145" s="16">
+      <c r="CR145" s="14">
         <f t="shared" si="9"/>
         <v>57.968833879592886</v>
       </c>
     </row>
-    <row r="146" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>137</v>
       </c>
@@ -42932,20 +42931,20 @@
       <c r="CN146" t="s">
         <v>97</v>
       </c>
-      <c r="CO146" s="17">
+      <c r="CO146" s="15">
         <f t="shared" si="10"/>
         <v>-4.3535869770963131E-3</v>
       </c>
-      <c r="CP146" s="17">
+      <c r="CP146" s="15">
         <f t="shared" si="11"/>
         <v>1.0674157303370846E-2</v>
       </c>
-      <c r="CR146" s="16">
+      <c r="CR146" s="14">
         <f t="shared" si="9"/>
         <v>53.393915730337078</v>
       </c>
     </row>
-    <row r="147" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>138</v>
       </c>
@@ -43222,20 +43221,20 @@
       <c r="CN147" t="s">
         <v>97</v>
       </c>
-      <c r="CO147" s="17">
+      <c r="CO147" s="15">
         <f t="shared" si="10"/>
         <v>-7.2008862629246995E-3</v>
       </c>
-      <c r="CP147" s="17">
+      <c r="CP147" s="15">
         <f t="shared" si="11"/>
         <v>9.6909855549460744E-3</v>
       </c>
-      <c r="CR147" s="16">
+      <c r="CR147" s="14">
         <f t="shared" si="9"/>
         <v>54.684863777655877</v>
       </c>
     </row>
-    <row r="148" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>139</v>
       </c>
@@ -43512,20 +43511,20 @@
       <c r="CN148" t="s">
         <v>97</v>
       </c>
-      <c r="CO148" s="17">
+      <c r="CO148" s="15">
         <f t="shared" si="10"/>
         <v>-1.3769751693002208E-2</v>
       </c>
-      <c r="CP148" s="17">
+      <c r="CP148" s="15">
         <f t="shared" si="11"/>
         <v>1.0719071013845505E-2</v>
       </c>
-      <c r="CR148" s="16">
+      <c r="CR148" s="14">
         <f t="shared" si="9"/>
         <v>89.549709691826706</v>
       </c>
     </row>
-    <row r="149" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>140</v>
       </c>
@@ -43802,20 +43801,20 @@
       <c r="CN149" t="s">
         <v>97</v>
       </c>
-      <c r="CO149" s="17">
+      <c r="CO149" s="15">
         <f t="shared" si="10"/>
         <v>2.0400593471809891E-3</v>
       </c>
-      <c r="CP149" s="17">
+      <c r="CP149" s="15">
         <f t="shared" si="11"/>
         <v>5.1660516605166462E-3</v>
       </c>
-      <c r="CR149" s="16">
+      <c r="CR149" s="14">
         <f t="shared" si="9"/>
         <v>54.19855350553506</v>
       </c>
     </row>
-    <row r="150" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>141</v>
       </c>
@@ -44092,20 +44091,20 @@
       <c r="CN150" t="s">
         <v>97</v>
       </c>
-      <c r="CO150" s="17">
+      <c r="CO150" s="15">
         <f t="shared" si="10"/>
         <v>-1.2546408910510953E-2</v>
       </c>
-      <c r="CP150" s="17">
+      <c r="CP150" s="15">
         <f t="shared" si="11"/>
         <v>1.5006305170239598E-2</v>
       </c>
-      <c r="CR150" s="16">
+      <c r="CR150" s="14">
         <f t="shared" si="9"/>
         <v>79.282142496847413</v>
       </c>
     </row>
-    <row r="151" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>142</v>
       </c>
@@ -44382,20 +44381,20 @@
       <c r="CN151" t="s">
         <v>97</v>
       </c>
-      <c r="CO151" s="17">
+      <c r="CO151" s="15">
         <f t="shared" si="10"/>
         <v>8.9766606822261341E-4</v>
       </c>
-      <c r="CP151" s="17">
+      <c r="CP151" s="15">
         <f t="shared" si="11"/>
         <v>2.0228671943711474E-2</v>
       </c>
-      <c r="CR151" s="16">
+      <c r="CR151" s="14">
         <f t="shared" si="9"/>
         <v>34.096042216358839</v>
       </c>
     </row>
-    <row r="152" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>143</v>
       </c>
@@ -44672,20 +44671,20 @@
       <c r="CN152" t="s">
         <v>97</v>
       </c>
-      <c r="CO152" s="17">
+      <c r="CO152" s="15">
         <f t="shared" si="10"/>
         <v>-3.2180209171359664E-3</v>
       </c>
-      <c r="CP152" s="17">
+      <c r="CP152" s="15">
         <f t="shared" si="11"/>
         <v>2.7132794156013551E-2</v>
       </c>
-      <c r="CR152" s="16">
+      <c r="CR152" s="14">
         <f t="shared" si="9"/>
         <v>38.301781894077742</v>
       </c>
     </row>
-    <row r="153" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>144</v>
       </c>
@@ -44962,20 +44961,20 @@
       <c r="CN153" t="s">
         <v>97</v>
       </c>
-      <c r="CO153" s="17">
+      <c r="CO153" s="15">
         <f t="shared" si="10"/>
         <v>-2.0368574199806089E-2</v>
       </c>
-      <c r="CP153" s="17">
+      <c r="CP153" s="15">
         <f t="shared" si="11"/>
         <v>7.6997112608278018E-3</v>
       </c>
-      <c r="CR153" s="16">
+      <c r="CR153" s="14">
         <f t="shared" si="9"/>
         <v>31.168152069297403</v>
       </c>
     </row>
-    <row r="154" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>145</v>
       </c>
@@ -45252,20 +45251,20 @@
       <c r="CN154" t="s">
         <v>97</v>
       </c>
-      <c r="CO154" s="17">
+      <c r="CO154" s="15">
         <f t="shared" si="10"/>
         <v>-1.9047619047618536E-3</v>
       </c>
-      <c r="CP154" s="17">
+      <c r="CP154" s="15">
         <f t="shared" si="11"/>
         <v>5.0536955148452467E-3</v>
       </c>
-      <c r="CR154" s="16">
+      <c r="CR154" s="14">
         <f t="shared" si="9"/>
         <v>31.659191408717625</v>
       </c>
     </row>
-    <row r="155" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>146</v>
       </c>
@@ -45542,20 +45541,20 @@
       <c r="CN155" t="s">
         <v>97</v>
       </c>
-      <c r="CO155" s="17">
+      <c r="CO155" s="15">
         <f t="shared" si="10"/>
         <v>5.5430452104624495E-3</v>
       </c>
-      <c r="CP155" s="17">
+      <c r="CP155" s="15">
         <f t="shared" si="11"/>
         <v>1.3838436256703446E-3</v>
       </c>
-      <c r="CR155" s="16">
+      <c r="CR155" s="14">
         <f t="shared" si="9"/>
         <v>57.809889292509943</v>
       </c>
     </row>
-    <row r="156" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>147</v>
       </c>
@@ -45832,20 +45831,20 @@
       <c r="CN156" t="s">
         <v>97</v>
       </c>
-      <c r="CO156" s="17">
+      <c r="CO156" s="15">
         <f t="shared" si="10"/>
         <v>-3.0904235024799664E-2</v>
       </c>
-      <c r="CP156" s="17">
+      <c r="CP156" s="15">
         <f t="shared" si="11"/>
         <v>9.8224404986776426E-3</v>
       </c>
-      <c r="CR156" s="16">
+      <c r="CR156" s="14">
         <f t="shared" si="9"/>
         <v>26.467446165470342</v>
       </c>
     </row>
-    <row r="157" spans="1:96" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>148</v>
       </c>
@@ -46122,163 +46121,147 @@
       <c r="CN157" t="s">
         <v>97</v>
       </c>
-      <c r="CO157" s="17">
+      <c r="CO157" s="15">
         <f t="shared" si="10"/>
         <v>-1.9375427399133116E-3</v>
       </c>
-      <c r="CP157" s="17">
+      <c r="CP157" s="15">
         <f t="shared" si="11"/>
         <v>1.5484739676840276E-2</v>
       </c>
-      <c r="CR157" s="16">
+      <c r="CR157" s="14">
         <f t="shared" si="9"/>
         <v>89.09863105924596</v>
       </c>
     </row>
     <row r="158" spans="1:96" x14ac:dyDescent="0.25">
-      <c r="CR158" s="16">
+      <c r="CR158" s="14">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:96" x14ac:dyDescent="0.25">
-      <c r="CR159" s="16">
+      <c r="CR159" s="14">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:96" x14ac:dyDescent="0.25">
-      <c r="CR160" s="16">
+      <c r="CR160" s="14">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="161" spans="96:96" x14ac:dyDescent="0.25">
-      <c r="CR161" s="16">
+      <c r="CR161" s="14">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="162" spans="96:96" x14ac:dyDescent="0.25">
-      <c r="CR162" s="16">
+      <c r="CR162" s="14">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="163" spans="96:96" x14ac:dyDescent="0.25">
-      <c r="CR163" s="16">
+      <c r="CR163" s="14">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="164" spans="96:96" x14ac:dyDescent="0.25">
-      <c r="CR164" s="16">
+      <c r="CR164" s="14">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="165" spans="96:96" x14ac:dyDescent="0.25">
-      <c r="CR165" s="16">
+      <c r="CR165" s="14">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="166" spans="96:96" x14ac:dyDescent="0.25">
-      <c r="CR166" s="16">
+      <c r="CR166" s="14">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="167" spans="96:96" x14ac:dyDescent="0.25">
-      <c r="CR167" s="16">
+      <c r="CR167" s="14">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="168" spans="96:96" x14ac:dyDescent="0.25">
-      <c r="CR168" s="16">
+      <c r="CR168" s="14">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="169" spans="96:96" x14ac:dyDescent="0.25">
-      <c r="CR169" s="16">
+      <c r="CR169" s="14">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="170" spans="96:96" x14ac:dyDescent="0.25">
-      <c r="CR170" s="16">
+      <c r="CR170" s="14">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="171" spans="96:96" x14ac:dyDescent="0.25">
-      <c r="CR171" s="16">
+      <c r="CR171" s="14">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="172" spans="96:96" x14ac:dyDescent="0.25">
-      <c r="CR172" s="16">
+      <c r="CR172" s="14">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="173" spans="96:96" x14ac:dyDescent="0.25">
-      <c r="CR173" s="16">
+      <c r="CR173" s="14">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="174" spans="96:96" x14ac:dyDescent="0.25">
-      <c r="CR174" s="16">
+      <c r="CR174" s="14">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="175" spans="96:96" x14ac:dyDescent="0.25">
-      <c r="CR175" s="16">
+      <c r="CR175" s="14">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="176" spans="96:96" x14ac:dyDescent="0.25">
-      <c r="CR176" s="16">
+      <c r="CR176" s="14">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="177" spans="96:96" x14ac:dyDescent="0.25">
-      <c r="CR177" s="16">
+      <c r="CR177" s="14">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="178" spans="96:96" x14ac:dyDescent="0.25">
-      <c r="CR178" s="16">
+      <c r="CR178" s="14">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A8:CP157" xr:uid="{0DA6BA3E-49B0-4898-8D03-82DADBAF71B3}">
-    <filterColumn colId="50">
-      <customFilters>
-        <customFilter operator="greaterThan" val="0"/>
-      </customFilters>
-    </filterColumn>
-    <filterColumn colId="69">
-      <customFilters>
-        <customFilter operator="greaterThan" val="0"/>
-      </customFilters>
-    </filterColumn>
-    <filterColumn colId="88">
-      <customFilters>
-        <customFilter operator="greaterThan" val="1"/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A8:CP157" xr:uid="{0DA6BA3E-49B0-4898-8D03-82DADBAF71B3}"/>
   <mergeCells count="1">
     <mergeCell ref="B2:C2"/>
   </mergeCells>
